--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44463</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45107</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45677</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>45222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>45911</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44328</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45357</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>45925.46724537037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45715</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45966</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45272</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>45940</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>45733</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>44823.61357638889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45189</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>45702</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45957.68721064815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>45315</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44463</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>44463</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45000</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>44494</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>45128</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>44840</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>45663</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>45303</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>46013.48835648148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>45363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>45580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>45016</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45622</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>45335</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44767</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44328</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>44314</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>44743</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45089</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44686</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>45702</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45602</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>45200.76865740741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45812.44396990741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>45929</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45929.58872685185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45930</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>45930</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45492</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>45931.56096064814</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45477</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>45842.57001157408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>45465.76983796297</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>45958.56099537037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>45958.54703703704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>45511.41752314815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>45328</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>45974.8231712963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45974.81770833334</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>45727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45093</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>45139</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>45303</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>45337</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>45952</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>46035</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>45343</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45267</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>45302</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45322</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>45506</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>44918</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>45477</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>45727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44825</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>45015</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>44574</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>44348</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>44705</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>44838.43608796296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>44449</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44434</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>44468.47100694444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>44533</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>44286</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>44536</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>44237</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>44670</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44672.47938657407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44705</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44452</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44725</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44560</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44558</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44744</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44460</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>44399.50987268519</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>44435</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>44609</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>44628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>44572</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>44607</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>44592.46954861111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>44410</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>44623.34907407407</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>44623.35771990741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44354</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44837</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44627</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44442</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44888.49152777778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44368</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44744.04241898148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>44461</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44491</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44596</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44362</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44412</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44412</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44328</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44841.68107638889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>44862.57940972222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44866.56840277778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>44706</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44813.41585648148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44433</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44579</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44384</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>44767.50349537037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44449</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44713.92694444444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44522</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>44838.43405092593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44749.48130787037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44816.66179398148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44237</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44341</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44256</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44298</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44518.83491898148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44587.49263888889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44419</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44685</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44525</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44697</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44645.58873842593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44428</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44628</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44672.46216435185</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>45416</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44399</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>45338.44405092593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>45636</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>45520.56605324074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>45112.96149305555</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>44601.705</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>45474.65922453703</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>45121</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>45144.5925</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>44645.58700231482</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>45643</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         <v>45194</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>45188.676875</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>44824.37194444444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>45665</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>45554</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>45577.78436342593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45577.78920138889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45107.90287037037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45419</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>45307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>45127</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>45198</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>44743</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44744</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>45132</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>45111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>45544.68872685185</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44945</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>44846.37982638889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>45342.37055555556</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>45049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>45110.65657407408</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>45300</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>45652.39358796296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44634</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>45761.43996527778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>45761.45442129629</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>45665.44560185185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44961</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>45468</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>45477</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>44743</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45490</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         <v>45503</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44655</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>45586</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>45482.58282407407</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>45482.58454861111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>45357</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>45405</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>45007.58128472222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>45707.73159722222</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>45693.56855324074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>45738.68771990741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>45465.78322916666</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>45465.79103009259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45343</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>45544</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>45357</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45461.61268518519</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45173</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>45887.4405787037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>45887.44887731481</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>45887.44121527778</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>45749.39954861111</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>45116</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45555</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44307.68211805556</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>45799.43543981481</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45204</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45799.43565972222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>45799.43751157408</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>45799.43972222223</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>45233</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>45233</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>45582</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>45574</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>45648.33399305555</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>45800.78822916667</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>45260</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>45555</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>45670</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45887</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44487</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>45714</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>45553.57224537037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>45887.4477662037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44938</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>45343</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>45343</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>45600</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>45121</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>45804</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>45121</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>45804.419375</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>45544</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17424,7 +17424,7 @@
         <v>45532</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17481,7 +17481,7 @@
         <v>45811.58686342592</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
         <v>45581.41429398148</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>45810.60901620371</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>45265</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>45889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>45396</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>45810.42681712963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>45812.55164351852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>45244</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45586</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>45229</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>45326</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>45895</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>45895</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>45895</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>45496</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>45894.31759259259</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>45119.4802662037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>44513</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>44984</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>45896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>44767</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>44537</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>45898</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>45561</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>45532</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>45532</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>45338</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>45898.60077546296</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>45900.45480324074</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>45900.47234953703</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>45577.79115740741</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44572</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>45000.46664351852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>45420.39774305555</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>45900.46728009259</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>45323</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45898</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>45900.47006944445</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>45900.47556712963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>45446</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>45902.25947916666</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>45168.51060185185</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         <v>45902.25789351852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45723.37791666666</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>45900.46421296296</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>45477</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>45875</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20408,7 +20408,7 @@
         <v>45825.66778935185</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>45737</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20522,7 +20522,7 @@
         <v>45727</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20579,7 +20579,7 @@
         <v>45338</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20636,7 +20636,7 @@
         <v>45792</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>45085</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20750,7 +20750,7 @@
         <v>45915.57407407407</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>45843</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>45915.34508101852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>44817</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>45915.88474537037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44587</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>45069.46530092593</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>45875</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>45916.46348379629</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>45737</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>45831.60479166666</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>45706</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>45737</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>45364</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>45586.29178240741</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>45737</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>45923.62017361111</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>44774</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45925.66001157407</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>45247</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>45833.67045138889</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45832</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>45485.57604166667</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>45925.4690625</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>44249</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>45925.46439814815</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>45925.46207175926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>45929</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>45575.65561342592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>45244</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>45119</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>45835.58896990741</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>45121.80873842593</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22656,7 +22656,7 @@
         <v>45723.3765625</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>45723.37921296297</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>45583.33128472222</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22827,7 +22827,7 @@
         <v>45929.61524305555</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>45926.65568287037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         <v>44847</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>45930</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>45281</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>45930</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>45930</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>45931.56511574074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45554</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>45758</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>45440.58768518519</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>45839</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>45839.73775462963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>45933.73827546297</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>45915</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>45226</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>45939.46443287037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>45939.46699074074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>45668.65929398148</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>45668.70152777778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44855</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>45938.77130787037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>45939.44630787037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>45098.66982638889</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>45939.47542824074</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>45938</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>45939.59577546296</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>45166</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>45939.47030092592</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>45258</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44595</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>45470</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>45943.6071875</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>45943.5743287037</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>45609.57256944444</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>45321</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>45027</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>45465.77428240741</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>45408.42017361111</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>45144</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>45144</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>45736.56064814814</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>45014</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>45736.79643518518</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45706</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>45331</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45845.53</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45945.68521990741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45579</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45707.7328587963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45338</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25811,7 +25811,7 @@
         <v>45754</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>45568</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25925,7 +25925,7 @@
         <v>45715</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25982,7 +25982,7 @@
         <v>45845.53181712963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26039,7 +26039,7 @@
         <v>45700</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26096,7 +26096,7 @@
         <v>45945.68832175926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26153,7 +26153,7 @@
         <v>45945.68895833333</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26210,7 +26210,7 @@
         <v>45945.68956018519</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26267,7 +26267,7 @@
         <v>45755</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26324,7 +26324,7 @@
         <v>45755</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>45755</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>45846.5358912037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>45083</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>45947</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>44390</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45568</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>45818</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26795,7 +26795,7 @@
         <v>45035</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26852,7 +26852,7 @@
         <v>44274</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26909,7 +26909,7 @@
         <v>45894</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>45644</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27023,7 +27023,7 @@
         <v>45894</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27080,7 +27080,7 @@
         <v>45894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27137,7 +27137,7 @@
         <v>45159</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>45749.41003472222</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45854.68505787037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44840</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45856.71502314815</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45901</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45860.43425925926</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45355.47297453704</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45860.43550925926</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45083</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>45198</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>45862.72125</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44544.54547453704</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>45903</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27940,7 +27940,7 @@
         <v>45511.57498842593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27997,7 +27997,7 @@
         <v>44846</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>45827.68927083333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45953.37246527777</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44712</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28235,7 +28235,7 @@
         <v>45589.77721064815</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28292,7 +28292,7 @@
         <v>45577.78651620371</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28349,7 +28349,7 @@
         <v>45607.78885416667</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45554</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45533</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45729.81550925926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>45954.356875</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>45954.36238425926</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45020</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>45197</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>45197</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>45646.46715277778</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45831.6021875</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45103.5831712963</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45874.49202546296</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>45874.49907407408</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45190</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>45874</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44984</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>45874.49726851852</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45874.50575231481</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>45874.61452546297</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>45874.50697916667</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29571,7 +29571,7 @@
         <v>45874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44858</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>45874.49295138889</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>45874.50819444445</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29799,7 +29799,7 @@
         <v>45226</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>45958.53815972222</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29913,7 +29913,7 @@
         <v>44599.41950231481</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29970,7 +29970,7 @@
         <v>45960.83756944445</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30032,7 +30032,7 @@
         <v>45876.90118055556</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30089,7 +30089,7 @@
         <v>45960.36130787037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30151,7 +30151,7 @@
         <v>45134.8561574074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30208,7 +30208,7 @@
         <v>44713</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30270,7 +30270,7 @@
         <v>44876</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30327,7 +30327,7 @@
         <v>45960.84490740741</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44915</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>45366.37332175926</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>45558.63395833333</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>45581.51094907407</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>45558.67956018518</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         <v>45558.68189814815</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45960.82561342593</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>45607.59041666667</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>45607.58175925926</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>45803</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>45315</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44607</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>45467.36152777778</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>45247</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>44995</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>45546</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31341,7 +31341,7 @@
         <v>45558.61697916667</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31403,7 +31403,7 @@
         <v>45558.62166666667</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>45558.66828703704</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>45418</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>45581.49773148148</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>45963</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>45963.82510416667</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>45748</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>45748</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44795.58869212963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45883.34923611111</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>45969.39774305555</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>45002.67038194444</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45755</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>45328</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>44767</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>44904</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>44847</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>45973.61690972222</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>45644.81020833334</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32526,7 +32526,7 @@
         <v>45883.39725694444</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32583,7 +32583,7 @@
         <v>45882.55253472222</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>45972</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>45973.58697916667</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>45973.40318287037</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>45973.60923611111</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45646.55054398148</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45974.72283564815</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33027,7 +33027,7 @@
         <v>45426</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33084,7 +33084,7 @@
         <v>45884.56550925926</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33141,7 +33141,7 @@
         <v>45884.300625</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33198,7 +33198,7 @@
         <v>44918</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33255,7 +33255,7 @@
         <v>45979.67366898148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33312,7 +33312,7 @@
         <v>45978.84071759259</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33369,7 +33369,7 @@
         <v>45979</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         <v>45763.75098379629</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33483,7 +33483,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33540,7 +33540,7 @@
         <v>45386.59263888889</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>45377</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33654,7 +33654,7 @@
         <v>45981.78496527778</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33716,7 +33716,7 @@
         <v>45981.79851851852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33778,7 +33778,7 @@
         <v>45981.79371527778</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45981.79671296296</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45985.64399305556</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45985.64126157408</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45737</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34073,7 +34073,7 @@
         <v>45738.65178240741</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34130,7 +34130,7 @@
         <v>45762.7953587963</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
         <v>45412</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>44866.5670949074</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>45370</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>45370</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>45987.47050925926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>44923</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34534,7 +34534,7 @@
         <v>45187</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34591,7 +34591,7 @@
         <v>45009.64487268519</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34648,7 +34648,7 @@
         <v>45986.48920138889</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>44993</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>45600.62240740741</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>45343</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34876,7 +34876,7 @@
         <v>44497</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34933,7 +34933,7 @@
         <v>45352</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34990,7 +34990,7 @@
         <v>46030.30606481482</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35047,7 +35047,7 @@
         <v>45337</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35109,7 +35109,7 @@
         <v>45989.74815972222</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35171,7 +35171,7 @@
         <v>46030.36341435185</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35228,7 +35228,7 @@
         <v>44818</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35285,7 +35285,7 @@
         <v>46030.36016203704</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35342,7 +35342,7 @@
         <v>46030.35733796296</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35399,7 +35399,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35456,7 +35456,7 @@
         <v>44684.59604166666</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35513,7 +35513,7 @@
         <v>45993.59104166667</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35575,7 +35575,7 @@
         <v>45558.35518518519</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35632,7 +35632,7 @@
         <v>45993.59319444445</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45993.59519675926</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35756,7 +35756,7 @@
         <v>45989.75074074074</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35818,7 +35818,7 @@
         <v>46031.60064814815</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         <v>45993.58829861111</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35937,7 +35937,7 @@
         <v>45478</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35994,7 +35994,7 @@
         <v>45763.74811342593</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36051,7 +36051,7 @@
         <v>46031.60143518518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36108,7 +36108,7 @@
         <v>45180</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36165,7 +36165,7 @@
         <v>45307</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36227,7 +36227,7 @@
         <v>45197</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36284,7 +36284,7 @@
         <v>46036.62605324074</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36341,7 +36341,7 @@
         <v>46036.6215162037</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36398,7 +36398,7 @@
         <v>46036.59356481482</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36455,7 +36455,7 @@
         <v>46036.6240625</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36512,7 +36512,7 @@
         <v>44879</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36574,7 +36574,7 @@
         <v>45260</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36631,7 +36631,7 @@
         <v>45995</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36688,7 +36688,7 @@
         <v>45012.58659722222</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36745,7 +36745,7 @@
         <v>46035.49152777778</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36802,7 +36802,7 @@
         <v>45121</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36864,7 +36864,7 @@
         <v>45999.5834837963</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36926,7 +36926,7 @@
         <v>45700</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>45267</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>45267</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>45648.28662037037</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44816</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>45664.5075</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>46041.46825231481</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>46041.47547453704</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>46041.66765046296</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>45455</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>45343</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37568,7 +37568,7 @@
         <v>45149.61890046296</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>45232.85101851852</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>45311</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37739,7 +37739,7 @@
         <v>45072</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>45996</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37853,7 +37853,7 @@
         <v>46042.66351851852</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37910,7 +37910,7 @@
         <v>45945</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37967,7 +37967,7 @@
         <v>45573</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38029,7 +38029,7 @@
         <v>45144.55350694444</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38091,7 +38091,7 @@
         <v>46043.69572916667</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
         <v>45586</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38210,7 +38210,7 @@
         <v>45526.54428240741</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38267,7 +38267,7 @@
         <v>46042.66019675926</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38324,7 +38324,7 @@
         <v>46043.68041666667</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38381,7 +38381,7 @@
         <v>46043.69855324074</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38438,7 +38438,7 @@
         <v>46001.79890046296</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38495,7 +38495,7 @@
         <v>46043.69349537037</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38552,7 +38552,7 @@
         <v>45709</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38609,7 +38609,7 @@
         <v>45568</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38666,7 +38666,7 @@
         <v>44628</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38723,7 +38723,7 @@
         <v>45712</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38780,7 +38780,7 @@
         <v>45712</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38837,7 +38837,7 @@
         <v>45723</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>45668.69042824074</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>46043.67734953704</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39008,7 +39008,7 @@
         <v>45846</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>45408</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39122,7 +39122,7 @@
         <v>45573</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39179,7 +39179,7 @@
         <v>45453</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39241,7 +39241,7 @@
         <v>46006</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39298,7 +39298,7 @@
         <v>46048.6058449074</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39360,7 +39360,7 @@
         <v>45398</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39417,7 +39417,7 @@
         <v>45803</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39474,7 +39474,7 @@
         <v>46007.64255787037</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39531,7 +39531,7 @@
         <v>45112</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>45054</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>45194</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39707,7 +39707,7 @@
         <v>46041</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39764,7 +39764,7 @@
         <v>45546</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39821,7 +39821,7 @@
         <v>45946</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39878,7 +39878,7 @@
         <v>45085.5793287037</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39935,7 +39935,7 @@
         <v>46008.45972222222</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39992,7 +39992,7 @@
         <v>44992</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40049,7 +40049,7 @@
         <v>45831</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40106,7 +40106,7 @@
         <v>45306</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>45307</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40220,7 +40220,7 @@
         <v>45607.78569444444</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>45493.90299768518</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>45387.745625</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40396,7 +40396,7 @@
         <v>44463</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>46050</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40510,7 +40510,7 @@
         <v>46055.05668981482</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40567,7 +40567,7 @@
         <v>45474</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40624,7 +40624,7 @@
         <v>45189</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40681,7 +40681,7 @@
         <v>46013.47608796296</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40743,7 +40743,7 @@
         <v>46050</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40800,7 +40800,7 @@
         <v>45282</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40857,7 +40857,7 @@
         <v>46057.36145833333</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40914,7 +40914,7 @@
         <v>46041.61950231482</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40971,7 +40971,7 @@
         <v>45274</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41028,7 +41028,7 @@
         <v>45737</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41085,7 +41085,7 @@
         <v>45265</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41142,7 +41142,7 @@
         <v>46057.45541666666</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>45593</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41256,7 +41256,7 @@
         <v>46031</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41313,7 +41313,7 @@
         <v>46041</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41370,7 +41370,7 @@
         <v>44971</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41427,7 +41427,7 @@
         <v>44893.61615740741</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41484,7 +41484,7 @@
         <v>44729</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41541,7 +41541,7 @@
         <v>46035</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41598,7 +41598,7 @@
         <v>45833</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41655,7 +41655,7 @@
         <v>45882</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41712,7 +41712,7 @@
         <v>45336</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41769,7 +41769,7 @@
         <v>45845</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         <v>45420</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41883,7 +41883,7 @@
         <v>45079</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41940,7 +41940,7 @@
         <v>45315</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41997,7 +41997,7 @@
         <v>45120.63530092593</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42054,7 +42054,7 @@
         <v>45307</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42116,7 +42116,7 @@
         <v>45002</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42173,7 +42173,7 @@
         <v>45465.73241898148</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42230,7 +42230,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42287,7 +42287,7 @@
         <v>45228</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42344,7 +42344,7 @@
         <v>45343</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42406,7 +42406,7 @@
         <v>45468</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42463,7 +42463,7 @@
         <v>45042.68837962963</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42520,7 +42520,7 @@
         <v>45672</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>45338</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42634,7 +42634,7 @@
         <v>45110</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42691,7 +42691,7 @@
         <v>45385</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42748,7 +42748,7 @@
         <v>45014</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42805,7 +42805,7 @@
         <v>44988</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42867,7 +42867,7 @@
         <v>45415</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42924,7 +42924,7 @@
         <v>44998</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42981,7 +42981,7 @@
         <v>45019.48450231482</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43038,7 +43038,7 @@
         <v>45124</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43095,7 +43095,7 @@
         <v>44497</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43152,7 +43152,7 @@
         <v>45307</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43209,7 +43209,7 @@
         <v>44894</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         <v>44419</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43323,7 +43323,7 @@
         <v>45465.78670138889</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43380,7 +43380,7 @@
         <v>45191</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43437,7 +43437,7 @@
         <v>45300.66396990741</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43494,7 +43494,7 @@
         <v>45301.39177083333</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43551,7 +43551,7 @@
         <v>45470.5659837963</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43608,7 +43608,7 @@
         <v>45721.30579861111</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43665,7 +43665,7 @@
         <v>45098</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43722,7 +43722,7 @@
         <v>44341.59855324074</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43784,7 +43784,7 @@
         <v>45608.36141203704</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43841,7 +43841,7 @@
         <v>44894</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43903,7 +43903,7 @@
         <v>45321</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43960,7 +43960,7 @@
         <v>45719.50620370371</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44017,7 +44017,7 @@
         <v>45315.47284722222</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44074,7 +44074,7 @@
         <v>45077.59108796297</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44131,7 +44131,7 @@
         <v>45077</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44188,7 +44188,7 @@
         <v>44853</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44250,7 +44250,7 @@
         <v>45566</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44307,7 +44307,7 @@
         <v>44991</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44364,7 +44364,7 @@
         <v>45022</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44421,7 +44421,7 @@
         <v>45254</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44478,7 +44478,7 @@
         <v>44963.83846064815</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44535,7 +44535,7 @@
         <v>45356.97445601852</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44592,7 +44592,7 @@
         <v>45727.61193287037</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44649,7 +44649,7 @@
         <v>45267</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44711,7 +44711,7 @@
         <v>45394</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44768,7 +44768,7 @@
         <v>45307</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44825,7 +44825,7 @@
         <v>45106</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44882,7 +44882,7 @@
         <v>45180</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44939,7 +44939,7 @@
         <v>45379.38943287037</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44996,7 +44996,7 @@
         <v>45282.47112268519</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45053,7 +45053,7 @@
         <v>45465.77907407407</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45110,7 +45110,7 @@
         <v>45544</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45167,7 +45167,7 @@
         <v>45119</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45224,7 +45224,7 @@
         <v>44455</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45281,7 +45281,7 @@
         <v>45343</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45343,7 +45343,7 @@
         <v>45586</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45405,7 +45405,7 @@
         <v>44853</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45467,7 +45467,7 @@
         <v>44923</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45524,7 +45524,7 @@
         <v>45414.63265046296</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45581,7 +45581,7 @@
         <v>45334</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45638,7 +45638,7 @@
         <v>45646.37674768519</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45695,7 +45695,7 @@
         <v>45334.59233796296</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45752,7 +45752,7 @@
         <v>44972.35990740741</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45809,7 +45809,7 @@
         <v>45303</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45871,7 +45871,7 @@
         <v>44272</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45928,7 +45928,7 @@
         <v>45015</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45990,7 +45990,7 @@
         <v>45716.7922800926</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46047,7 +46047,7 @@
         <v>45476</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46104,7 +46104,7 @@
         <v>45525.35751157408</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46161,7 +46161,7 @@
         <v>45716.79393518518</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46218,7 +46218,7 @@
         <v>45043.86902777778</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46275,7 +46275,7 @@
         <v>45197.76050925926</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46332,7 +46332,7 @@
         <v>44476</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46394,7 +46394,7 @@
         <v>45474</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46451,7 +46451,7 @@
         <v>44419</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46513,7 +46513,7 @@
         <v>45253</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46570,7 +46570,7 @@
         <v>45182</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46632,7 +46632,7 @@
         <v>45461.56512731482</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46694,7 +46694,7 @@
         <v>44767</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46751,7 +46751,7 @@
         <v>45247</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46808,7 +46808,7 @@
         <v>44732</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46865,7 +46865,7 @@
         <v>44995.57435185185</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46922,7 +46922,7 @@
         <v>45106</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46979,7 +46979,7 @@
         <v>44596</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47036,7 +47036,7 @@
         <v>44992.69829861111</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47093,7 +47093,7 @@
         <v>45751.68946759259</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47150,7 +47150,7 @@
         <v>45165.41042824074</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47212,7 +47212,7 @@
         <v>45149</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47269,7 +47269,7 @@
         <v>45182.48615740741</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47331,7 +47331,7 @@
         <v>45247.58837962963</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47388,7 +47388,7 @@
         <v>45310</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47445,7 +47445,7 @@
         <v>45110</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>44910</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47559,7 +47559,7 @@
         <v>44933</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47616,7 +47616,7 @@
         <v>45685.59568287037</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47673,7 +47673,7 @@
         <v>45461.61435185185</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47735,7 +47735,7 @@
         <v>45278</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47792,7 +47792,7 @@
         <v>45278</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47849,7 +47849,7 @@
         <v>45506</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         <v>45506</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47963,7 +47963,7 @@
         <v>45119</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48020,7 +48020,7 @@
         <v>45141</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48077,7 +48077,7 @@
         <v>45141.35717592593</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48134,7 +48134,7 @@
         <v>44858</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48191,7 +48191,7 @@
         <v>44326</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48248,7 +48248,7 @@
         <v>44468</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48305,7 +48305,7 @@
         <v>45738</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48362,7 +48362,7 @@
         <v>45090</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48419,7 +48419,7 @@
         <v>45121</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48481,7 +48481,7 @@
         <v>45738</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48538,7 +48538,7 @@
         <v>45738.68306712963</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48595,7 +48595,7 @@
         <v>45566</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48652,7 +48652,7 @@
         <v>45357.59486111111</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48709,7 +48709,7 @@
         <v>45622.43130787037</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48766,7 +48766,7 @@
         <v>45712</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48823,7 +48823,7 @@
         <v>45189.37082175926</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48885,7 +48885,7 @@
         <v>45387</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48942,7 +48942,7 @@
         <v>44390</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49004,7 +49004,7 @@
         <v>44991</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49061,7 +49061,7 @@
         <v>44907</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49118,7 +49118,7 @@
         <v>45275.6518287037</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49180,7 +49180,7 @@
         <v>45119</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49237,7 +49237,7 @@
         <v>44694</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49294,7 +49294,7 @@
         <v>44946</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>45737</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49408,7 +49408,7 @@
         <v>45777.38359953704</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49465,7 +49465,7 @@
         <v>45776</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49522,7 +49522,7 @@
         <v>45443.55804398148</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49579,7 +49579,7 @@
         <v>45574</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49636,7 +49636,7 @@
         <v>45414.43387731481</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49693,7 +49693,7 @@
         <v>45789</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49750,7 +49750,7 @@
         <v>45446</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49807,7 +49807,7 @@
         <v>44497</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49864,7 +49864,7 @@
         <v>45357</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49921,7 +49921,7 @@
         <v>45370</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49978,7 +49978,7 @@
         <v>45789.44635416667</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50035,7 +50035,7 @@
         <v>45603.68197916666</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50092,7 +50092,7 @@
         <v>45217</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50149,7 +50149,7 @@
         <v>45665.44717592592</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50206,7 +50206,7 @@
         <v>45233</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50263,7 +50263,7 @@
         <v>45700</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50320,7 +50320,7 @@
         <v>45183</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50377,7 +50377,7 @@
         <v>45517</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50434,7 +50434,7 @@
         <v>45498</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         <v>45533</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50548,7 +50548,7 @@
         <v>45797.48488425926</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44463</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45107</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45677</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>45222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>45911</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44328</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45357</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>45925.46724537037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1336,7 +1336,7 @@
         <v>45715</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45966</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45272</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>45940</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1699,7 +1699,7 @@
         <v>45733</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>44823.61357638889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45189</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>45702</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45957.68721064815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>45315</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44463</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>44463</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45000</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>44494</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>45128</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>44840</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>45663</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>45303</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2940,7 +2940,7 @@
         <v>46013.48835648148</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3035,7 +3035,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3125,7 +3125,7 @@
         <v>45363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3211,7 +3211,7 @@
         <v>45580</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3297,7 +3297,7 @@
         <v>45016</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45622</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3478,7 +3478,7 @@
         <v>45335</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3564,7 +3564,7 @@
         <v>44767</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>44328</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3739,7 +3739,7 @@
         <v>44314</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         <v>44480</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3918,7 +3918,7 @@
         <v>44743</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4007,7 +4007,7 @@
         <v>45089</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         <v>44686</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4177,7 +4177,7 @@
         <v>45702</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4267,7 +4267,7 @@
         <v>45602</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         <v>45200.76865740741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4437,7 +4437,7 @@
         <v>45812.44396990741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4522,7 +4522,7 @@
         <v>45929</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4607,7 +4607,7 @@
         <v>45929.58872685185</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4692,7 +4692,7 @@
         <v>45930</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
         <v>45930</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45492</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4947,7 +4947,7 @@
         <v>45931.56096064814</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45477</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>45842.57001157408</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5207,7 +5207,7 @@
         <v>45465.76983796297</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5292,7 +5292,7 @@
         <v>45958.56099537037</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5377,7 +5377,7 @@
         <v>45958.54703703704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         <v>45511.41752314815</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         <v>45328</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5636,7 +5636,7 @@
         <v>45974.8231712963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         <v>45974.81770833334</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         <v>45727</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5891,7 +5891,7 @@
         <v>45093</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5981,7 +5981,7 @@
         <v>45139</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         <v>45303</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>45337</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>45952</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>46035</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6416,7 +6416,7 @@
         <v>45343</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45267</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6604,7 +6604,7 @@
         <v>45302</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45322</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         <v>45506</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6859,7 +6859,7 @@
         <v>44918</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>45477</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         <v>45727</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7114,7 +7114,7 @@
         <v>44825</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7199,7 +7199,7 @@
         <v>45015</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7289,7 +7289,7 @@
         <v>44574</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7346,7 +7346,7 @@
         <v>44348</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7403,7 +7403,7 @@
         <v>44705</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7460,7 +7460,7 @@
         <v>44838.43608796296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7522,7 +7522,7 @@
         <v>44449</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44434</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>44468.47100694444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7703,7 +7703,7 @@
         <v>44533</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>44286</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7817,7 +7817,7 @@
         <v>44536</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7874,7 +7874,7 @@
         <v>44237</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7931,7 +7931,7 @@
         <v>44670</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7988,7 +7988,7 @@
         <v>44672.47938657407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8045,7 +8045,7 @@
         <v>44705</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8102,7 +8102,7 @@
         <v>44452</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44725</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8216,7 +8216,7 @@
         <v>44560</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8273,7 +8273,7 @@
         <v>44558</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8330,7 +8330,7 @@
         <v>44767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8387,7 +8387,7 @@
         <v>44744</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8444,7 +8444,7 @@
         <v>44460</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8521,7 +8521,7 @@
         <v>44399.50987268519</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8578,7 +8578,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8635,7 +8635,7 @@
         <v>44435</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8692,7 +8692,7 @@
         <v>44609</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8754,7 +8754,7 @@
         <v>44628</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8811,7 +8811,7 @@
         <v>44572</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8868,7 +8868,7 @@
         <v>44607</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8925,7 +8925,7 @@
         <v>44592.46954861111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8982,7 +8982,7 @@
         <v>44410</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9039,7 +9039,7 @@
         <v>44623.34907407407</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9096,7 +9096,7 @@
         <v>44623.35771990741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9153,7 +9153,7 @@
         <v>44354</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9210,7 +9210,7 @@
         <v>44837</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9272,7 +9272,7 @@
         <v>44627</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9329,7 +9329,7 @@
         <v>44442</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9391,7 +9391,7 @@
         <v>44888.49152777778</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9448,7 +9448,7 @@
         <v>44368</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9505,7 +9505,7 @@
         <v>44744.04241898148</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9562,7 +9562,7 @@
         <v>44461</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9619,7 +9619,7 @@
         <v>44491</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9676,7 +9676,7 @@
         <v>44596</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9733,7 +9733,7 @@
         <v>44362</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9790,7 +9790,7 @@
         <v>44412</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9847,7 +9847,7 @@
         <v>44412</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9904,7 +9904,7 @@
         <v>44328</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44841.68107638889</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10018,7 +10018,7 @@
         <v>44862.57940972222</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10075,7 +10075,7 @@
         <v>44866.56840277778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10132,7 +10132,7 @@
         <v>44706</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10189,7 +10189,7 @@
         <v>44470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>44813.41585648148</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10303,7 +10303,7 @@
         <v>44433</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>44579</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>44384</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10484,7 +10484,7 @@
         <v>44767.50349537037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10541,7 +10541,7 @@
         <v>44449</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10598,7 +10598,7 @@
         <v>44713.92694444444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10655,7 +10655,7 @@
         <v>44522</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>44838.43405092593</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>44749.48130787037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>44816.66179398148</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10893,7 +10893,7 @@
         <v>44237</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10950,7 +10950,7 @@
         <v>44341</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44256</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11069,7 +11069,7 @@
         <v>44298</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11126,7 +11126,7 @@
         <v>44518.83491898148</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11183,7 +11183,7 @@
         <v>44587.49263888889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11245,7 +11245,7 @@
         <v>44419</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11302,7 +11302,7 @@
         <v>44685</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>44525</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11416,7 +11416,7 @@
         <v>44697</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11473,7 +11473,7 @@
         <v>44645.58873842593</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11530,7 +11530,7 @@
         <v>44428</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11587,7 +11587,7 @@
         <v>44628</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11644,7 +11644,7 @@
         <v>44672.46216435185</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11701,7 +11701,7 @@
         <v>45416</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11758,7 +11758,7 @@
         <v>44399</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11815,7 +11815,7 @@
         <v>45338.44405092593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11872,7 +11872,7 @@
         <v>45636</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11929,7 +11929,7 @@
         <v>45520.56605324074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11986,7 +11986,7 @@
         <v>45112.96149305555</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12048,7 +12048,7 @@
         <v>44601.705</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12105,7 +12105,7 @@
         <v>45474.65922453703</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12162,7 +12162,7 @@
         <v>45121</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>45144.5925</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         <v>44645.58700231482</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12343,7 +12343,7 @@
         <v>45643</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12400,7 +12400,7 @@
         <v>45194</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12457,7 +12457,7 @@
         <v>45188.676875</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12514,7 +12514,7 @@
         <v>44824.37194444444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12571,7 +12571,7 @@
         <v>45665</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12628,7 +12628,7 @@
         <v>45554</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12685,7 +12685,7 @@
         <v>45577.78436342593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45577.78920138889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45107.90287037037</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45419</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>45307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12970,7 +12970,7 @@
         <v>45127</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13027,7 +13027,7 @@
         <v>45198</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13084,7 +13084,7 @@
         <v>44743</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13141,7 +13141,7 @@
         <v>44744</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13198,7 +13198,7 @@
         <v>45132</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13255,7 +13255,7 @@
         <v>45111</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13312,7 +13312,7 @@
         <v>45544.68872685185</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13369,7 +13369,7 @@
         <v>44945</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13426,7 +13426,7 @@
         <v>44846.37982638889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13483,7 +13483,7 @@
         <v>45342.37055555556</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13540,7 +13540,7 @@
         <v>45049</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13597,7 +13597,7 @@
         <v>45110.65657407408</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13654,7 +13654,7 @@
         <v>45300</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13711,7 +13711,7 @@
         <v>45652.39358796296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13768,7 +13768,7 @@
         <v>44634</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13825,7 +13825,7 @@
         <v>45761.43996527778</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13882,7 +13882,7 @@
         <v>45761.45442129629</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13939,7 +13939,7 @@
         <v>45665.44560185185</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13996,7 +13996,7 @@
         <v>44961</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14053,7 +14053,7 @@
         <v>45468</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14110,7 +14110,7 @@
         <v>45477</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         <v>44743</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         <v>45490</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         <v>45503</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         <v>44655</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         <v>45586</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>45482.58282407407</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>45482.58454861111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>45357</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>45405</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>45007.58128472222</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14747,7 +14747,7 @@
         <v>45707.73159722222</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14804,7 +14804,7 @@
         <v>45693.56855324074</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14861,7 +14861,7 @@
         <v>45738.68771990741</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>45465.78322916666</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>45465.79103009259</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15032,7 +15032,7 @@
         <v>45343</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15094,7 +15094,7 @@
         <v>45544</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15151,7 +15151,7 @@
         <v>45357</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15208,7 +15208,7 @@
         <v>45461.61268518519</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15270,7 +15270,7 @@
         <v>45089</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15327,7 +15327,7 @@
         <v>45173</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15384,7 +15384,7 @@
         <v>45887.4405787037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>45887.44887731481</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15498,7 +15498,7 @@
         <v>45887.44121527778</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15555,7 +15555,7 @@
         <v>45749.39954861111</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15612,7 +15612,7 @@
         <v>45116</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45555</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>44307.68211805556</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>45799.43543981481</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15850,7 +15850,7 @@
         <v>45204</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15907,7 +15907,7 @@
         <v>45799.43565972222</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15969,7 +15969,7 @@
         <v>45799.43751157408</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>45799.43972222223</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
         <v>45233</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>45233</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16207,7 +16207,7 @@
         <v>45582</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>45574</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>45648.33399305555</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16378,7 +16378,7 @@
         <v>45800.78822916667</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16435,7 +16435,7 @@
         <v>45260</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16492,7 +16492,7 @@
         <v>45555</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16549,7 +16549,7 @@
         <v>45670</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16606,7 +16606,7 @@
         <v>45887</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16663,7 +16663,7 @@
         <v>44487</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16720,7 +16720,7 @@
         <v>45714</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>45553.57224537037</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>45887.4477662037</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16891,7 +16891,7 @@
         <v>44938</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16948,7 +16948,7 @@
         <v>45343</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17010,7 +17010,7 @@
         <v>45343</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>45600</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>45121</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>45804</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>45121</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17310,7 +17310,7 @@
         <v>45804.419375</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17367,7 +17367,7 @@
         <v>45544</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17424,7 +17424,7 @@
         <v>45532</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17481,7 +17481,7 @@
         <v>45811.58686342592</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17538,7 +17538,7 @@
         <v>45581.41429398148</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17600,7 +17600,7 @@
         <v>45810.60901620371</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17657,7 +17657,7 @@
         <v>45265</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17714,7 +17714,7 @@
         <v>45889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17771,7 +17771,7 @@
         <v>45396</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17828,7 +17828,7 @@
         <v>45810.42681712963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17885,7 +17885,7 @@
         <v>45812.55164351852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17942,7 +17942,7 @@
         <v>45244</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -18004,7 +18004,7 @@
         <v>44627</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18061,7 +18061,7 @@
         <v>45586</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18123,7 +18123,7 @@
         <v>45229</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18180,7 +18180,7 @@
         <v>45326</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18237,7 +18237,7 @@
         <v>45895</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18294,7 +18294,7 @@
         <v>45895</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18351,7 +18351,7 @@
         <v>45895</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18408,7 +18408,7 @@
         <v>45496</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18465,7 +18465,7 @@
         <v>45894.31759259259</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18522,7 +18522,7 @@
         <v>45119.4802662037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18579,7 +18579,7 @@
         <v>44513</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18636,7 +18636,7 @@
         <v>44984</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>45896</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18750,7 +18750,7 @@
         <v>44767</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18807,7 +18807,7 @@
         <v>44537</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18864,7 +18864,7 @@
         <v>45898</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18921,7 +18921,7 @@
         <v>45561</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18978,7 +18978,7 @@
         <v>45532</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19035,7 +19035,7 @@
         <v>45532</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>45338</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>45898.60077546296</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>45900.45480324074</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>45900.47234953703</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>45577.79115740741</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19377,7 +19377,7 @@
         <v>44572</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19434,7 +19434,7 @@
         <v>45000.46664351852</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19491,7 +19491,7 @@
         <v>45420.39774305555</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19548,7 +19548,7 @@
         <v>45900.46728009259</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19605,7 +19605,7 @@
         <v>45323</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19662,7 +19662,7 @@
         <v>45898</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>45900.47006944445</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>45900.47556712963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>44742</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>45446</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>45902.25947916666</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>45168.51060185185</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20066,7 +20066,7 @@
         <v>45902.25789351852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>44945</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20180,7 +20180,7 @@
         <v>45723.37791666666</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20237,7 +20237,7 @@
         <v>45900.46421296296</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20294,7 +20294,7 @@
         <v>45477</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>45875</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20408,7 +20408,7 @@
         <v>45825.66778935185</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20465,7 +20465,7 @@
         <v>45737</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20522,7 +20522,7 @@
         <v>45727</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20579,7 +20579,7 @@
         <v>45338</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20636,7 +20636,7 @@
         <v>45792</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20693,7 +20693,7 @@
         <v>45085</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20750,7 +20750,7 @@
         <v>45915.57407407407</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20807,7 +20807,7 @@
         <v>45843</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20864,7 +20864,7 @@
         <v>45915.34508101852</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20921,7 +20921,7 @@
         <v>44817</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20978,7 +20978,7 @@
         <v>45915.88474537037</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21035,7 +21035,7 @@
         <v>44587</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21097,7 +21097,7 @@
         <v>45069.46530092593</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21154,7 +21154,7 @@
         <v>45875</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21211,7 +21211,7 @@
         <v>45916.46348379629</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21268,7 +21268,7 @@
         <v>45737</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21325,7 +21325,7 @@
         <v>45831.60479166666</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21382,7 +21382,7 @@
         <v>45706</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21439,7 +21439,7 @@
         <v>45737</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21496,7 +21496,7 @@
         <v>45364</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21553,7 +21553,7 @@
         <v>45586.29178240741</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21610,7 +21610,7 @@
         <v>45737</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21667,7 +21667,7 @@
         <v>45923.62017361111</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21724,7 +21724,7 @@
         <v>44774</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45925.66001157407</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21843,7 +21843,7 @@
         <v>45247</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21900,7 +21900,7 @@
         <v>45833.67045138889</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21957,7 +21957,7 @@
         <v>45832</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22019,7 +22019,7 @@
         <v>45485.57604166667</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22076,7 +22076,7 @@
         <v>45925.4690625</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22133,7 +22133,7 @@
         <v>44249</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22190,7 +22190,7 @@
         <v>45925.46439814815</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22247,7 +22247,7 @@
         <v>45925.46207175926</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22304,7 +22304,7 @@
         <v>45929</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22361,7 +22361,7 @@
         <v>45575.65561342592</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>45244</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22480,7 +22480,7 @@
         <v>45119</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22537,7 +22537,7 @@
         <v>45835.58896990741</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22594,7 +22594,7 @@
         <v>45121.80873842593</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22656,7 +22656,7 @@
         <v>45723.3765625</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22713,7 +22713,7 @@
         <v>45723.37921296297</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22770,7 +22770,7 @@
         <v>45583.33128472222</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22827,7 +22827,7 @@
         <v>45929.61524305555</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22884,7 +22884,7 @@
         <v>45926.65568287037</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22941,7 +22941,7 @@
         <v>44847</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22998,7 +22998,7 @@
         <v>45930</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>45281</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23117,7 +23117,7 @@
         <v>45930</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23174,7 +23174,7 @@
         <v>45930</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23231,7 +23231,7 @@
         <v>45931.56511574074</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23293,7 +23293,7 @@
         <v>45554</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23350,7 +23350,7 @@
         <v>45758</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23407,7 +23407,7 @@
         <v>45440.58768518519</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23464,7 +23464,7 @@
         <v>45839</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23521,7 +23521,7 @@
         <v>45839.73775462963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23578,7 +23578,7 @@
         <v>45933.73827546297</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23635,7 +23635,7 @@
         <v>45915</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23692,7 +23692,7 @@
         <v>45226</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23749,7 +23749,7 @@
         <v>45939.46443287037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23806,7 +23806,7 @@
         <v>45939.46699074074</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23863,7 +23863,7 @@
         <v>45668.65929398148</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>45668.70152777778</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44855</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>45938.77130787037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>45939.44630787037</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24148,7 +24148,7 @@
         <v>45098.66982638889</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24205,7 +24205,7 @@
         <v>45939.47542824074</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24262,7 +24262,7 @@
         <v>45938</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24319,7 +24319,7 @@
         <v>45166</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24376,7 +24376,7 @@
         <v>45939.59577546296</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24433,7 +24433,7 @@
         <v>45166</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24490,7 +24490,7 @@
         <v>45939.47030092592</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24547,7 +24547,7 @@
         <v>45258</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>44595</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>45470</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>45943.6071875</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>45943.5743287037</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>45609.57256944444</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24889,7 +24889,7 @@
         <v>45321</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24946,7 +24946,7 @@
         <v>45027</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25003,7 +25003,7 @@
         <v>45465.77428240741</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25060,7 +25060,7 @@
         <v>45408.42017361111</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25117,7 +25117,7 @@
         <v>45144</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25174,7 +25174,7 @@
         <v>45144</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25236,7 +25236,7 @@
         <v>45736.56064814814</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25293,7 +25293,7 @@
         <v>45014</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25350,7 +25350,7 @@
         <v>45736.79643518518</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25407,7 +25407,7 @@
         <v>45706</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25464,7 +25464,7 @@
         <v>45331</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25521,7 +25521,7 @@
         <v>45845.53</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25578,7 +25578,7 @@
         <v>45945.68521990741</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25635,7 +25635,7 @@
         <v>45579</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25692,7 +25692,7 @@
         <v>45707.7328587963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25749,7 +25749,7 @@
         <v>45338</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25811,7 +25811,7 @@
         <v>45754</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25868,7 +25868,7 @@
         <v>45568</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25925,7 +25925,7 @@
         <v>45715</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25982,7 +25982,7 @@
         <v>45845.53181712963</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26039,7 +26039,7 @@
         <v>45700</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26096,7 +26096,7 @@
         <v>45945.68832175926</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26153,7 +26153,7 @@
         <v>45945.68895833333</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26210,7 +26210,7 @@
         <v>45945.68956018519</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26267,7 +26267,7 @@
         <v>45755</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26324,7 +26324,7 @@
         <v>45755</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26381,7 +26381,7 @@
         <v>45755</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26438,7 +26438,7 @@
         <v>45846.5358912037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26495,7 +26495,7 @@
         <v>45083</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26557,7 +26557,7 @@
         <v>45947</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26614,7 +26614,7 @@
         <v>44390</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26676,7 +26676,7 @@
         <v>45568</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26738,7 +26738,7 @@
         <v>45818</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26795,7 +26795,7 @@
         <v>45035</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26852,7 +26852,7 @@
         <v>44274</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26909,7 +26909,7 @@
         <v>45894</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26966,7 +26966,7 @@
         <v>45644</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27023,7 +27023,7 @@
         <v>45894</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27080,7 +27080,7 @@
         <v>45894</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27137,7 +27137,7 @@
         <v>45159</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27194,7 +27194,7 @@
         <v>45749.41003472222</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27251,7 +27251,7 @@
         <v>45854.68505787037</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27308,7 +27308,7 @@
         <v>44840</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27365,7 +27365,7 @@
         <v>45856.71502314815</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27422,7 +27422,7 @@
         <v>45901</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27479,7 +27479,7 @@
         <v>45860.43425925926</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27536,7 +27536,7 @@
         <v>45355.47297453704</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27593,7 +27593,7 @@
         <v>45860.43550925926</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27650,7 +27650,7 @@
         <v>45083</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27712,7 +27712,7 @@
         <v>45198</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27769,7 +27769,7 @@
         <v>45862.72125</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27826,7 +27826,7 @@
         <v>44544.54547453704</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27883,7 +27883,7 @@
         <v>45903</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27940,7 +27940,7 @@
         <v>45511.57498842593</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27997,7 +27997,7 @@
         <v>44846</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28059,7 +28059,7 @@
         <v>45827.68927083333</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28116,7 +28116,7 @@
         <v>45953.37246527777</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28173,7 +28173,7 @@
         <v>44712</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28235,7 +28235,7 @@
         <v>45589.77721064815</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28292,7 +28292,7 @@
         <v>45577.78651620371</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28349,7 +28349,7 @@
         <v>45607.78885416667</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28411,7 +28411,7 @@
         <v>45554</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28468,7 +28468,7 @@
         <v>45533</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28525,7 +28525,7 @@
         <v>45729.81550925926</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>45954.356875</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>45954.36238425926</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28706,7 +28706,7 @@
         <v>45020</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28768,7 +28768,7 @@
         <v>45197</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28825,7 +28825,7 @@
         <v>45197</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>45646.46715277778</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45831.6021875</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29001,7 +29001,7 @@
         <v>45103.5831712963</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29058,7 +29058,7 @@
         <v>45874.49202546296</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29115,7 +29115,7 @@
         <v>45874.49907407408</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29172,7 +29172,7 @@
         <v>45190</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29229,7 +29229,7 @@
         <v>45874</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29286,7 +29286,7 @@
         <v>44984</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29343,7 +29343,7 @@
         <v>45874.49726851852</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29400,7 +29400,7 @@
         <v>45874.50575231481</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29457,7 +29457,7 @@
         <v>45874.61452546297</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29514,7 +29514,7 @@
         <v>45874.50697916667</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29571,7 +29571,7 @@
         <v>45874</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29628,7 +29628,7 @@
         <v>44858</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29685,7 +29685,7 @@
         <v>45874.49295138889</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29742,7 +29742,7 @@
         <v>45874.50819444445</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29799,7 +29799,7 @@
         <v>45226</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29856,7 +29856,7 @@
         <v>45958.53815972222</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29913,7 +29913,7 @@
         <v>44599.41950231481</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29970,7 +29970,7 @@
         <v>45960.83756944445</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30032,7 +30032,7 @@
         <v>45876.90118055556</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30089,7 +30089,7 @@
         <v>45960.36130787037</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30151,7 +30151,7 @@
         <v>45134.8561574074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30208,7 +30208,7 @@
         <v>44713</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30270,7 +30270,7 @@
         <v>44876</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30327,7 +30327,7 @@
         <v>45960.84490740741</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30389,7 +30389,7 @@
         <v>44915</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30451,7 +30451,7 @@
         <v>45366.37332175926</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30508,7 +30508,7 @@
         <v>45558.63395833333</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30570,7 +30570,7 @@
         <v>45581.51094907407</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30632,7 +30632,7 @@
         <v>45558.67956018518</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30694,7 +30694,7 @@
         <v>45558.68189814815</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30756,7 +30756,7 @@
         <v>45960.82561342593</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30813,7 +30813,7 @@
         <v>45607.59041666667</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30875,7 +30875,7 @@
         <v>45607.58175925926</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30937,7 +30937,7 @@
         <v>45803</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30994,7 +30994,7 @@
         <v>45315</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31051,7 +31051,7 @@
         <v>44607</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31108,7 +31108,7 @@
         <v>45467.36152777778</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31165,7 +31165,7 @@
         <v>45247</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31222,7 +31222,7 @@
         <v>44995</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31279,7 +31279,7 @@
         <v>45546</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31341,7 +31341,7 @@
         <v>45558.61697916667</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31403,7 +31403,7 @@
         <v>45558.62166666667</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31465,7 +31465,7 @@
         <v>45558.66828703704</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31527,7 +31527,7 @@
         <v>45418</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31589,7 +31589,7 @@
         <v>45581.49773148148</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31651,7 +31651,7 @@
         <v>45963</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31708,7 +31708,7 @@
         <v>45963.82510416667</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>45748</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>45748</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>44795.58869212963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45883.34923611111</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31998,7 +31998,7 @@
         <v>45969.39774305555</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32055,7 +32055,7 @@
         <v>45002.67038194444</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45755</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>45328</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>44767</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>44904</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>44847</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>45973.61690972222</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>45644.81020833334</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32526,7 +32526,7 @@
         <v>45883.39725694444</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32583,7 +32583,7 @@
         <v>45882.55253472222</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>45972</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>45973.58697916667</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32759,7 +32759,7 @@
         <v>45973.40318287037</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32821,7 +32821,7 @@
         <v>45973.60923611111</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32903,7 +32903,7 @@
         <v>45646.55054398148</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>45974.72283564815</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33027,7 +33027,7 @@
         <v>45426</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33084,7 +33084,7 @@
         <v>45884.56550925926</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33141,7 +33141,7 @@
         <v>45884.300625</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33198,7 +33198,7 @@
         <v>44918</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33255,7 +33255,7 @@
         <v>45979.67366898148</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33312,7 +33312,7 @@
         <v>45978.84071759259</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33369,7 +33369,7 @@
         <v>45979</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33426,7 +33426,7 @@
         <v>45763.75098379629</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33483,7 +33483,7 @@
         <v>45049</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33540,7 +33540,7 @@
         <v>45386.59263888889</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>45377</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33654,7 +33654,7 @@
         <v>45981.78496527778</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33716,7 +33716,7 @@
         <v>45981.79851851852</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33778,7 +33778,7 @@
         <v>45981.79371527778</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33840,7 +33840,7 @@
         <v>45981.79671296296</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45985.64399305556</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45985.64126157408</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45737</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34073,7 +34073,7 @@
         <v>45738.65178240741</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34130,7 +34130,7 @@
         <v>45762.7953587963</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
         <v>45412</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>44866.5670949074</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>45370</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>45370</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>45987.47050925926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>44923</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34534,7 +34534,7 @@
         <v>45187</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34591,7 +34591,7 @@
         <v>45009.64487268519</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34648,7 +34648,7 @@
         <v>45986.48920138889</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34705,7 +34705,7 @@
         <v>44993</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34762,7 +34762,7 @@
         <v>45600.62240740741</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34819,7 +34819,7 @@
         <v>45343</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34876,7 +34876,7 @@
         <v>44497</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34933,7 +34933,7 @@
         <v>45352</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34990,7 +34990,7 @@
         <v>46030.30606481482</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35047,7 +35047,7 @@
         <v>45337</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35109,7 +35109,7 @@
         <v>45989.74815972222</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35171,7 +35171,7 @@
         <v>46030.36341435185</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35228,7 +35228,7 @@
         <v>44818</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35285,7 +35285,7 @@
         <v>46030.36016203704</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35342,7 +35342,7 @@
         <v>46030.35733796296</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35399,7 +35399,7 @@
         <v>45128</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35456,7 +35456,7 @@
         <v>44684.59604166666</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35513,7 +35513,7 @@
         <v>45993.59104166667</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35575,7 +35575,7 @@
         <v>45558.35518518519</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35632,7 +35632,7 @@
         <v>45993.59319444445</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45993.59519675926</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35756,7 +35756,7 @@
         <v>45989.75074074074</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35818,7 +35818,7 @@
         <v>46031.60064814815</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35875,7 +35875,7 @@
         <v>45993.58829861111</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35937,7 +35937,7 @@
         <v>45478</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35994,7 +35994,7 @@
         <v>45763.74811342593</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36051,7 +36051,7 @@
         <v>46031.60143518518</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36108,7 +36108,7 @@
         <v>45180</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36165,7 +36165,7 @@
         <v>45307</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36227,7 +36227,7 @@
         <v>45197</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36284,7 +36284,7 @@
         <v>46036.62605324074</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36341,7 +36341,7 @@
         <v>46036.6215162037</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36398,7 +36398,7 @@
         <v>46036.59356481482</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36455,7 +36455,7 @@
         <v>46036.6240625</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36512,7 +36512,7 @@
         <v>44879</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36574,7 +36574,7 @@
         <v>45260</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36631,7 +36631,7 @@
         <v>45995</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36688,7 +36688,7 @@
         <v>45012.58659722222</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36745,7 +36745,7 @@
         <v>46035.49152777778</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36802,7 +36802,7 @@
         <v>45121</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36864,7 +36864,7 @@
         <v>45999.5834837963</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36926,7 +36926,7 @@
         <v>45700</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36983,7 +36983,7 @@
         <v>45267</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37045,7 +37045,7 @@
         <v>45267</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37107,7 +37107,7 @@
         <v>45648.28662037037</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37164,7 +37164,7 @@
         <v>44816</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37221,7 +37221,7 @@
         <v>45664.5075</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>46041.46825231481</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37335,7 +37335,7 @@
         <v>46041.47547453704</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37392,7 +37392,7 @@
         <v>46041.66765046296</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37449,7 +37449,7 @@
         <v>45455</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37506,7 +37506,7 @@
         <v>45343</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37568,7 +37568,7 @@
         <v>45149.61890046296</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>45232.85101851852</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>45311</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37739,7 +37739,7 @@
         <v>45072</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>45996</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37853,7 +37853,7 @@
         <v>46042.66351851852</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37910,7 +37910,7 @@
         <v>45945</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37967,7 +37967,7 @@
         <v>45573</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38029,7 +38029,7 @@
         <v>45144.55350694444</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38091,7 +38091,7 @@
         <v>46043.69572916667</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
         <v>45586</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38210,7 +38210,7 @@
         <v>45526.54428240741</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38267,7 +38267,7 @@
         <v>46042.66019675926</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38324,7 +38324,7 @@
         <v>46043.68041666667</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38381,7 +38381,7 @@
         <v>46043.69855324074</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38438,7 +38438,7 @@
         <v>46001.79890046296</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38495,7 +38495,7 @@
         <v>46043.69349537037</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38552,7 +38552,7 @@
         <v>45709</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38609,7 +38609,7 @@
         <v>45568</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38666,7 +38666,7 @@
         <v>44628</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38723,7 +38723,7 @@
         <v>45712</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38780,7 +38780,7 @@
         <v>45712</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38837,7 +38837,7 @@
         <v>45723</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38894,7 +38894,7 @@
         <v>45668.69042824074</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38951,7 +38951,7 @@
         <v>46043.67734953704</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39008,7 +39008,7 @@
         <v>45846</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39065,7 +39065,7 @@
         <v>45408</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39122,7 +39122,7 @@
         <v>45573</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39179,7 +39179,7 @@
         <v>45453</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39241,7 +39241,7 @@
         <v>46006</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39298,7 +39298,7 @@
         <v>46048.6058449074</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39360,7 +39360,7 @@
         <v>45398</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39417,7 +39417,7 @@
         <v>45803</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39474,7 +39474,7 @@
         <v>46007.64255787037</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39531,7 +39531,7 @@
         <v>45112</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39593,7 +39593,7 @@
         <v>45054</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39650,7 +39650,7 @@
         <v>45194</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39707,7 +39707,7 @@
         <v>46041</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39764,7 +39764,7 @@
         <v>45546</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39821,7 +39821,7 @@
         <v>45946</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39878,7 +39878,7 @@
         <v>45085.5793287037</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39935,7 +39935,7 @@
         <v>46008.45972222222</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39992,7 +39992,7 @@
         <v>44992</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40049,7 +40049,7 @@
         <v>45831</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40106,7 +40106,7 @@
         <v>45306</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>45307</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40220,7 +40220,7 @@
         <v>45607.78569444444</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40282,7 +40282,7 @@
         <v>45493.90299768518</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40339,7 +40339,7 @@
         <v>45387.745625</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40396,7 +40396,7 @@
         <v>44463</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40453,7 +40453,7 @@
         <v>46050</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40510,7 +40510,7 @@
         <v>46055.05668981482</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40567,7 +40567,7 @@
         <v>45474</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40624,7 +40624,7 @@
         <v>45189</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40681,7 +40681,7 @@
         <v>46013.47608796296</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40743,7 +40743,7 @@
         <v>46050</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40800,7 +40800,7 @@
         <v>45282</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40857,7 +40857,7 @@
         <v>46057.36145833333</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40914,7 +40914,7 @@
         <v>46041.61950231482</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40971,7 +40971,7 @@
         <v>45274</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41028,7 +41028,7 @@
         <v>45737</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41085,7 +41085,7 @@
         <v>45265</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41142,7 +41142,7 @@
         <v>46057.45541666666</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41199,7 +41199,7 @@
         <v>45593</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41256,7 +41256,7 @@
         <v>46031</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41313,7 +41313,7 @@
         <v>46041</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41370,7 +41370,7 @@
         <v>44971</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41427,7 +41427,7 @@
         <v>44893.61615740741</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41484,7 +41484,7 @@
         <v>44729</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41541,7 +41541,7 @@
         <v>46035</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41598,7 +41598,7 @@
         <v>45833</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41655,7 +41655,7 @@
         <v>45882</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41712,7 +41712,7 @@
         <v>45336</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41769,7 +41769,7 @@
         <v>45845</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         <v>45420</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41883,7 +41883,7 @@
         <v>45079</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41940,7 +41940,7 @@
         <v>45315</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41997,7 +41997,7 @@
         <v>45120.63530092593</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42054,7 +42054,7 @@
         <v>45307</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42116,7 +42116,7 @@
         <v>45002</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42173,7 +42173,7 @@
         <v>45465.73241898148</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42230,7 +42230,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42287,7 +42287,7 @@
         <v>45228</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42344,7 +42344,7 @@
         <v>45343</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42406,7 +42406,7 @@
         <v>45468</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42463,7 +42463,7 @@
         <v>45042.68837962963</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42520,7 +42520,7 @@
         <v>45672</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42577,7 +42577,7 @@
         <v>45338</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42634,7 +42634,7 @@
         <v>45110</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42691,7 +42691,7 @@
         <v>45385</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42748,7 +42748,7 @@
         <v>45014</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42805,7 +42805,7 @@
         <v>44988</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42867,7 +42867,7 @@
         <v>45415</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42924,7 +42924,7 @@
         <v>44998</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42981,7 +42981,7 @@
         <v>45019.48450231482</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43038,7 +43038,7 @@
         <v>45124</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43095,7 +43095,7 @@
         <v>44497</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43152,7 +43152,7 @@
         <v>45307</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43209,7 +43209,7 @@
         <v>44894</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43266,7 +43266,7 @@
         <v>44419</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43323,7 +43323,7 @@
         <v>45465.78670138889</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43380,7 +43380,7 @@
         <v>45191</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43437,7 +43437,7 @@
         <v>45300.66396990741</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43494,7 +43494,7 @@
         <v>45301.39177083333</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43551,7 +43551,7 @@
         <v>45470.5659837963</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43608,7 +43608,7 @@
         <v>45721.30579861111</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43665,7 +43665,7 @@
         <v>45098</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43722,7 +43722,7 @@
         <v>44341.59855324074</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43784,7 +43784,7 @@
         <v>45608.36141203704</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43841,7 +43841,7 @@
         <v>44894</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43903,7 +43903,7 @@
         <v>45321</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43960,7 +43960,7 @@
         <v>45719.50620370371</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44017,7 +44017,7 @@
         <v>45315.47284722222</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44074,7 +44074,7 @@
         <v>45077.59108796297</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44131,7 +44131,7 @@
         <v>45077</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44188,7 +44188,7 @@
         <v>44853</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44250,7 +44250,7 @@
         <v>45566</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44307,7 +44307,7 @@
         <v>44991</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44364,7 +44364,7 @@
         <v>45022</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44421,7 +44421,7 @@
         <v>45254</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44478,7 +44478,7 @@
         <v>44963.83846064815</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44535,7 +44535,7 @@
         <v>45356.97445601852</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44592,7 +44592,7 @@
         <v>45727.61193287037</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44649,7 +44649,7 @@
         <v>45267</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44711,7 +44711,7 @@
         <v>45394</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44768,7 +44768,7 @@
         <v>45307</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44825,7 +44825,7 @@
         <v>45106</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44882,7 +44882,7 @@
         <v>45180</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44939,7 +44939,7 @@
         <v>45379.38943287037</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44996,7 +44996,7 @@
         <v>45282.47112268519</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45053,7 +45053,7 @@
         <v>45465.77907407407</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45110,7 +45110,7 @@
         <v>45544</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45167,7 +45167,7 @@
         <v>45119</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45224,7 +45224,7 @@
         <v>44455</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45281,7 +45281,7 @@
         <v>45343</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45343,7 +45343,7 @@
         <v>45586</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45405,7 +45405,7 @@
         <v>44853</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45467,7 +45467,7 @@
         <v>44923</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45524,7 +45524,7 @@
         <v>45414.63265046296</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45581,7 +45581,7 @@
         <v>45334</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45638,7 +45638,7 @@
         <v>45646.37674768519</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45695,7 +45695,7 @@
         <v>45334.59233796296</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45752,7 +45752,7 @@
         <v>44972.35990740741</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45809,7 +45809,7 @@
         <v>45303</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45871,7 +45871,7 @@
         <v>44272</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45928,7 +45928,7 @@
         <v>45015</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45990,7 +45990,7 @@
         <v>45716.7922800926</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46047,7 +46047,7 @@
         <v>45476</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46104,7 +46104,7 @@
         <v>45525.35751157408</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46161,7 +46161,7 @@
         <v>45716.79393518518</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46218,7 +46218,7 @@
         <v>45043.86902777778</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46275,7 +46275,7 @@
         <v>45197.76050925926</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46332,7 +46332,7 @@
         <v>44476</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46394,7 +46394,7 @@
         <v>45474</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46451,7 +46451,7 @@
         <v>44419</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46513,7 +46513,7 @@
         <v>45253</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46570,7 +46570,7 @@
         <v>45182</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46632,7 +46632,7 @@
         <v>45461.56512731482</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46694,7 +46694,7 @@
         <v>44767</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46751,7 +46751,7 @@
         <v>45247</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46808,7 +46808,7 @@
         <v>44732</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46865,7 +46865,7 @@
         <v>44995.57435185185</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46922,7 +46922,7 @@
         <v>45106</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46979,7 +46979,7 @@
         <v>44596</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47036,7 +47036,7 @@
         <v>44992.69829861111</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47093,7 +47093,7 @@
         <v>45751.68946759259</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47150,7 +47150,7 @@
         <v>45165.41042824074</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47212,7 +47212,7 @@
         <v>45149</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47269,7 +47269,7 @@
         <v>45182.48615740741</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47331,7 +47331,7 @@
         <v>45247.58837962963</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47388,7 +47388,7 @@
         <v>45310</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47445,7 +47445,7 @@
         <v>45110</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47502,7 +47502,7 @@
         <v>44910</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47559,7 +47559,7 @@
         <v>44933</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47616,7 +47616,7 @@
         <v>45685.59568287037</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47673,7 +47673,7 @@
         <v>45461.61435185185</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47735,7 +47735,7 @@
         <v>45278</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47792,7 +47792,7 @@
         <v>45278</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47849,7 +47849,7 @@
         <v>45506</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47906,7 +47906,7 @@
         <v>45506</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47963,7 +47963,7 @@
         <v>45119</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48020,7 +48020,7 @@
         <v>45141</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48077,7 +48077,7 @@
         <v>45141.35717592593</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48134,7 +48134,7 @@
         <v>44858</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48191,7 +48191,7 @@
         <v>44326</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48248,7 +48248,7 @@
         <v>44468</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48305,7 +48305,7 @@
         <v>45738</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48362,7 +48362,7 @@
         <v>45090</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48419,7 +48419,7 @@
         <v>45121</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48481,7 +48481,7 @@
         <v>45738</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48538,7 +48538,7 @@
         <v>45738.68306712963</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48595,7 +48595,7 @@
         <v>45566</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48652,7 +48652,7 @@
         <v>45357.59486111111</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48709,7 +48709,7 @@
         <v>45622.43130787037</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48766,7 +48766,7 @@
         <v>45712</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48823,7 +48823,7 @@
         <v>45189.37082175926</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48885,7 +48885,7 @@
         <v>45387</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48942,7 +48942,7 @@
         <v>44390</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -49004,7 +49004,7 @@
         <v>44991</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49061,7 +49061,7 @@
         <v>44907</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49118,7 +49118,7 @@
         <v>45275.6518287037</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49180,7 +49180,7 @@
         <v>45119</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49237,7 +49237,7 @@
         <v>44694</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49294,7 +49294,7 @@
         <v>44946</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49351,7 +49351,7 @@
         <v>45737</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49408,7 +49408,7 @@
         <v>45777.38359953704</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49465,7 +49465,7 @@
         <v>45776</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49522,7 +49522,7 @@
         <v>45443.55804398148</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49579,7 +49579,7 @@
         <v>45574</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49636,7 +49636,7 @@
         <v>45414.43387731481</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49693,7 +49693,7 @@
         <v>45789</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49750,7 +49750,7 @@
         <v>45446</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49807,7 +49807,7 @@
         <v>44497</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49864,7 +49864,7 @@
         <v>45357</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49921,7 +49921,7 @@
         <v>45370</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49978,7 +49978,7 @@
         <v>45789.44635416667</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50035,7 +50035,7 @@
         <v>45603.68197916666</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50092,7 +50092,7 @@
         <v>45217</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50149,7 +50149,7 @@
         <v>45665.44717592592</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50206,7 +50206,7 @@
         <v>45233</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50263,7 +50263,7 @@
         <v>45700</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50320,7 +50320,7 @@
         <v>45183</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50377,7 +50377,7 @@
         <v>45517</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50434,7 +50434,7 @@
         <v>45498</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50491,7 +50491,7 @@
         <v>45533</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50548,7 +50548,7 @@
         <v>45797.48488425926</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44463</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45107</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45677</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>45222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>45911</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44328</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45357</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>45715</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>45925.46724537037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45966</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45272</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>45733</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45940</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>44823.61357638889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45189</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>45702</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45957.68721064815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>45315</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44463</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>44463</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45000</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>44494</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>45128</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>44840</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>45663</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>45974.8231712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>45303</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>46013.48835648148</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>45363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>45580</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45016</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>45622</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>45335</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>44767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44328</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>44314</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>44743</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>45089</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>45702</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>44686</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>45200.76865740741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>45842.57001157408</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>45492</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>45477</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>45929</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45929.58872685185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>45465.76983796297</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>45930</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45930</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>45931.56096064814</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>45511.41752314815</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>45328</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>45958.56099537037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>45958.54703703704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>45727</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45093</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>45139</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>45974.81770833334</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>45303</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>45337</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>46035</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>45343</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>45267</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>45302</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>45322</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>45506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>45952</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44918</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>45477</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>45727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>44825</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>45015</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>45602</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>45812.44396990741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44574</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>44348</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>44705</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44838.43608796296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44468.47100694444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44434</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>44449</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>44533</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>44286</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>44536</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>44670</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>44672.47938657407</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>44705</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>44452</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44725</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>44558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>44744</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>44767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>44460</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>44399.50987268519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44435</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>44609</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44628</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44607</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44592.46954861111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44623.34907407407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44623.35771990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44410</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44354</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44837</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>44627</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>44442</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44888.49152777778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44744.04241898148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44368</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44461</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44491</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44596</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44362</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44412</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44412</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44328</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44841.68107638889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44862.57940972222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44866.56840277778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44706</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44813.41585648148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44433</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44384</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44767.50349537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44449</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44713.92694444444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44838.43405092593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44522</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44749.48130787037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44816.66179398148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44256</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44298</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44518.83491898148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44587.49263888889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>44685</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44419</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44341</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>44525</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>44645.58873842593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>44697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>44628</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>44428</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44672.46216435185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>45416</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>44399</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>45338.44405092593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>45112.96149305555</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>45636</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>45520.56605324074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>45474.65922453703</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>45121</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>45144.5925</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>44645.58700231482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>45643</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>45194</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>45665</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>45188.676875</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>45554</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>44824.37194444444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>44601.705</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>45107.90287037037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>45127</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>45577.78436342593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>45577.78920138889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>44744</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>45419</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>45307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>45198</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>45132</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45544.68872685185</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44945</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>45342.37055555556</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44846.37982638889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>45049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         <v>45110.65657407408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>45300</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44634</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>44743</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>44961</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>45468</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>45503</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>45665.44560185185</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>45586</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>45357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>45490</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>45693.56855324074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44655</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>45465.78322916666</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>45465.79103009259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>45482.58282407407</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>45482.58454861111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>45405</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>45007.58128472222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>45738.68771990741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>45707.73159722222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>45343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>45544</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>45089</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>45173</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>45357</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>45461.61268518519</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>45749.39954861111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>45116</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>45555</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>45652.39358796296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>45260</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>44307.68211805556</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45233</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>45233</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>45555</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>45204</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>45582</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45761.43996527778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>45761.45442129629</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>45574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>44487</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>44938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>45600</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>45121</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45343</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>45343</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45121</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>45544</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>45477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>45532</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>45265</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>45326</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>45244</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>44627</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>45586</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>45229</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>45887.44121527778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>45496</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44537</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>45119.4802662037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>45887</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44513</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44984</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>45714</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>45887.4477662037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>45420.39774305555</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44767</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>45561</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>45532</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>45532</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>45338</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>45577.79115740741</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44572</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>45000.46664351852</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>45323</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44742</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45825.66778935185</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>45446</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>45581.41429398148</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45889</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45168.51060185185</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>44945</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>45723.37791666666</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>45843</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>45477</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>45895</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>45895</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>45895</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>45894.31759259259</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>45727</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>45737</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>45831.60479166666</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>45706</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>45737</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>45737</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>45338</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>45896</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>45898</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>45833.67045138889</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         <v>45832</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>45898.60077546296</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>45900.45480324074</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>45900.47234953703</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44817</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45900.46728009259</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44587</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>45069.46530092593</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>45835.58896990741</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>45898</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>45900.47006944445</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>45900.47556712963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>45902.25947916666</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>45758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45902.25789351852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>45440.58768518519</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>45839</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>45364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>45586.29178240741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>45839.73775462963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>45900.46421296296</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44774</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>45875</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>45737</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>45247</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45485.57604166667</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>44249</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45609.57256944444</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>45321</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>45408.42017361111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>45736.56064814814</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>45575.65561342592</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>45014</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>45736.79643518518</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>45706</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45845.53</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>45754</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>45715</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45845.53181712963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>45244</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45792</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45119</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45121.80873842593</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45915.57407407407</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>45723.3765625</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45723.37921296297</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45583.33128472222</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45915.34508101852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>45846.5358912037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>45915.88474537037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>45281</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44390</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45568</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>45818</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45875</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45916.46348379629</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45554</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45749.41003472222</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45854.68505787037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45856.71502314815</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45901</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45860.43425925926</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45860.43550925926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45923.62017361111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45862.72125</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45226</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45903</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45925.66001157407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>45668.65929398148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>45668.70152777778</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>45925.4690625</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>45827.68927083333</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44712</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>45925.46439814815</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44855</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>45925.46207175926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>45929</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>45098.66982638889</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>45166</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>45258</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24024,7 +24024,7 @@
         <v>44595</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24081,7 +24081,7 @@
         <v>45470</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
         <v>45929.61524305555</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24195,7 +24195,7 @@
         <v>45926.65568287037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24252,7 +24252,7 @@
         <v>45027</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         <v>45930</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>45465.77428240741</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>45930</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>45144</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         <v>45144</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>45930</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>45831.6021875</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>45331</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>45579</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>45931.56511574074</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>45707.7328587963</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>45338</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>45874.49202546296</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>45874.49907407408</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>45874.49726851852</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>45874.50575231481</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>45874.61452546297</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>45874.50697916667</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>45874</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>45874.49295138889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>45874.50819444445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25583,7 +25583,7 @@
         <v>45755</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>45755</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>45755</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45083</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45933.73827546297</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45876.90118055556</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44713</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45558.63395833333</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>45581.51094907407</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45558.67956018518</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>45558.68189814815</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45607.59041666667</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>45607.58175925926</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26364,7 +26364,7 @@
         <v>44607</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>45035</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26478,7 +26478,7 @@
         <v>45915</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26535,7 +26535,7 @@
         <v>44274</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         <v>45644</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>45546</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>45558.61697916667</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45558.62166666667</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45159</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45558.66828703704</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>45418</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>45581.49773148148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>44840</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>45883.34923611111</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27192,7 +27192,7 @@
         <v>45939.46443287037</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>45939.46699074074</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>45355.47297453704</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45083</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>45883.39725694444</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>45882.55253472222</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>45198</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44544.54547453704</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>45511.57498842593</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>45938.77130787037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44846</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>45939.44630787037</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>45646.55054398148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>45939.47542824074</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>45938</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>45589.77721064815</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>45939.59577546296</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>45577.78651620371</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>45939.47030092592</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>45607.78885416667</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>45554</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28409,7 +28409,7 @@
         <v>45533</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>45943.6071875</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45943.5743287037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>45945.68521990741</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>45729.81550925926</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>45568</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>45700</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>45884.56550925926</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45020</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28927,7 +28927,7 @@
         <v>45945.68832175926</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28984,7 +28984,7 @@
         <v>45197</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29041,7 +29041,7 @@
         <v>45197</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29098,7 +29098,7 @@
         <v>45646.46715277778</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>45884.300625</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>45945.68895833333</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>45945.68956018519</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>45103.5831712963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>45947</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29445,7 +29445,7 @@
         <v>45887.4405787037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29502,7 +29502,7 @@
         <v>45887.44887731481</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29559,7 +29559,7 @@
         <v>45190</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29616,7 +29616,7 @@
         <v>44984</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29673,7 +29673,7 @@
         <v>44858</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>45226</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44599.41950231481</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>45134.8561574074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>44876</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29958,7 +29958,7 @@
         <v>44915</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>45366.37332175926</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30077,7 +30077,7 @@
         <v>45315</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>45467.36152777778</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>45247</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44995</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>45953.37246527777</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30362,7 +30362,7 @@
         <v>45748</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30419,7 +30419,7 @@
         <v>45748</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30476,7 +30476,7 @@
         <v>44795.58869212963</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45002.67038194444</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45954.356875</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30657,7 +30657,7 @@
         <v>45954.36238425926</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>45755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>45328</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>44904</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30947,7 +30947,7 @@
         <v>45958.53815972222</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31004,7 +31004,7 @@
         <v>44847</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31061,7 +31061,7 @@
         <v>45644.81020833334</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>45960.83756944445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>45960.36130787037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>45960.84490740741</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>45960.82561342593</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>45803</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>45426</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44918</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>45963</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45963.82510416667</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>45763.75098379629</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>45049</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>45969.39774305555</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>45386.59263888889</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>45377</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45973.61690972222</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45737</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45738.65178240741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45762.7953587963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>45972</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>45973.58697916667</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>45412</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>45973.40318287037</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>45973.60923611111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>45974.72283564815</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44866.5670949074</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>45370</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>45370</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44923</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45187</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45009.64487268519</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>45979.67366898148</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44993</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>45978.84071759259</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>45600.62240740741</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>45979</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>45343</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44497</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>45352</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>45337</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33416,7 +33416,7 @@
         <v>44818</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>45981.78496527778</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>45981.79851851852</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>45128</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33654,7 +33654,7 @@
         <v>45981.79371527778</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33716,7 +33716,7 @@
         <v>44684.59604166666</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33773,7 +33773,7 @@
         <v>45981.79671296296</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33835,7 +33835,7 @@
         <v>45985.64399305556</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33892,7 +33892,7 @@
         <v>45985.64126157408</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33949,7 +33949,7 @@
         <v>45558.35518518519</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34006,7 +34006,7 @@
         <v>45987.47050925926</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45986.48920138889</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45478</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45763.74811342593</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45989.74815972222</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>45180</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>45307</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34420,7 +34420,7 @@
         <v>45197</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>44879</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34539,7 +34539,7 @@
         <v>45260</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         <v>45993.59104166667</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34658,7 +34658,7 @@
         <v>45993.59319444445</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34720,7 +34720,7 @@
         <v>45993.59519675926</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45989.75074074074</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34844,7 +34844,7 @@
         <v>45012.58659722222</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34901,7 +34901,7 @@
         <v>45993.58829861111</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34963,7 +34963,7 @@
         <v>45121</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35025,7 +35025,7 @@
         <v>45700</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35082,7 +35082,7 @@
         <v>46036.62605324074</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35139,7 +35139,7 @@
         <v>46036.6215162037</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35196,7 +35196,7 @@
         <v>46036.59356481482</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         <v>46036.6240625</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35310,7 +35310,7 @@
         <v>45995</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35367,7 +35367,7 @@
         <v>45267</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>45267</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45648.28662037037</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>44816</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>45664.5075</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35662,7 +35662,7 @@
         <v>46035.49152777778</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35719,7 +35719,7 @@
         <v>45455</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35776,7 +35776,7 @@
         <v>45999.5834837963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35838,7 +35838,7 @@
         <v>45343</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45149.61890046296</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45232.85101851852</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45311</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45072</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>45573</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>46041.46825231481</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>46041.47547453704</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>46041.66765046296</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>45144.55350694444</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>45586</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36485,7 +36485,7 @@
         <v>45526.54428240741</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36542,7 +36542,7 @@
         <v>45996</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36599,7 +36599,7 @@
         <v>46042.66351851852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36656,7 +36656,7 @@
         <v>46043.69572916667</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36713,7 +36713,7 @@
         <v>45709</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36770,7 +36770,7 @@
         <v>44628</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36827,7 +36827,7 @@
         <v>45712</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36884,7 +36884,7 @@
         <v>45712</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36941,7 +36941,7 @@
         <v>46042.66019675926</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36998,7 +36998,7 @@
         <v>45723</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37055,7 +37055,7 @@
         <v>45668.69042824074</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37112,7 +37112,7 @@
         <v>46043.68041666667</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37169,7 +37169,7 @@
         <v>46043.69855324074</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37226,7 +37226,7 @@
         <v>46001.79890046296</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37283,7 +37283,7 @@
         <v>45408</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>45573</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>45453</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         <v>46043.69349537037</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>45568</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>45398</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>45846</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37687,7 +37687,7 @@
         <v>45112</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37749,7 +37749,7 @@
         <v>45054</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37806,7 +37806,7 @@
         <v>45194</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37863,7 +37863,7 @@
         <v>45546</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>46006</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37977,7 +37977,7 @@
         <v>46048.6058449074</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38039,7 +38039,7 @@
         <v>45085.5793287037</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38096,7 +38096,7 @@
         <v>44992</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38153,7 +38153,7 @@
         <v>46007.64255787037</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38210,7 +38210,7 @@
         <v>45306</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38267,7 +38267,7 @@
         <v>45307</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38324,7 +38324,7 @@
         <v>46008.45972222222</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38381,7 +38381,7 @@
         <v>45607.78569444444</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38443,7 +38443,7 @@
         <v>45493.90299768518</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38500,7 +38500,7 @@
         <v>45387.745625</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38557,7 +38557,7 @@
         <v>44463</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38614,7 +38614,7 @@
         <v>45474</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38671,7 +38671,7 @@
         <v>45189</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38728,7 +38728,7 @@
         <v>45282</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38785,7 +38785,7 @@
         <v>45274</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38842,7 +38842,7 @@
         <v>46050</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         <v>46055.05668981482</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38956,7 +38956,7 @@
         <v>45737</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39013,7 +39013,7 @@
         <v>45265</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39070,7 +39070,7 @@
         <v>45593</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39127,7 +39127,7 @@
         <v>46013.47608796296</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>46050</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39246,7 +39246,7 @@
         <v>44971</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39303,7 +39303,7 @@
         <v>44893.61615740741</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39360,7 +39360,7 @@
         <v>44729</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39417,7 +39417,7 @@
         <v>46057.45541666666</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39474,7 +39474,7 @@
         <v>46031</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39531,7 +39531,7 @@
         <v>45336</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39588,7 +39588,7 @@
         <v>45420</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         <v>45079</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39702,7 +39702,7 @@
         <v>45315</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39759,7 +39759,7 @@
         <v>45120.63530092593</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39816,7 +39816,7 @@
         <v>45307</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39878,7 +39878,7 @@
         <v>45002</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39935,7 +39935,7 @@
         <v>45803</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39992,7 +39992,7 @@
         <v>45465.73241898148</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40049,7 +40049,7 @@
         <v>45012</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40106,7 +40106,7 @@
         <v>45831</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>45833</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40220,7 +40220,7 @@
         <v>46035</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40277,7 +40277,7 @@
         <v>45228</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40334,7 +40334,7 @@
         <v>46041</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>45845</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40448,7 +40448,7 @@
         <v>45343</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40510,7 +40510,7 @@
         <v>46043.67734953704</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40567,7 +40567,7 @@
         <v>45468</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40624,7 +40624,7 @@
         <v>46065</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40681,7 +40681,7 @@
         <v>46066.72431712963</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40738,7 +40738,7 @@
         <v>46069.49875</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40795,7 +40795,7 @@
         <v>45042.68837962963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40852,7 +40852,7 @@
         <v>45894</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40909,7 +40909,7 @@
         <v>45672</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40966,7 +40966,7 @@
         <v>45338</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41023,7 +41023,7 @@
         <v>46041</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41080,7 +41080,7 @@
         <v>45894</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41137,7 +41137,7 @@
         <v>45894</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41194,7 +41194,7 @@
         <v>46066.71862268518</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41251,7 +41251,7 @@
         <v>46057.36145833333</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41308,7 +41308,7 @@
         <v>45946</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41365,7 +41365,7 @@
         <v>45110</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41422,7 +41422,7 @@
         <v>46041</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41479,7 +41479,7 @@
         <v>45385</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41536,7 +41536,7 @@
         <v>45014</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41593,7 +41593,7 @@
         <v>44988</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41655,7 +41655,7 @@
         <v>45415</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41712,7 +41712,7 @@
         <v>44998</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41769,7 +41769,7 @@
         <v>45019.48450231482</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         <v>45124</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41883,7 +41883,7 @@
         <v>44497</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41940,7 +41940,7 @@
         <v>45945</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41997,7 +41997,7 @@
         <v>46031.60064814815</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42054,7 +42054,7 @@
         <v>45307</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42111,7 +42111,7 @@
         <v>44894</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42168,7 +42168,7 @@
         <v>44419</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42225,7 +42225,7 @@
         <v>45465.78670138889</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42282,7 +42282,7 @@
         <v>46030.36016203704</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>46030.35733796296</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42396,7 +42396,7 @@
         <v>46030.36341435185</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42453,7 +42453,7 @@
         <v>45882</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42510,7 +42510,7 @@
         <v>45191</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42567,7 +42567,7 @@
         <v>45300.66396990741</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42624,7 +42624,7 @@
         <v>45301.39177083333</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42681,7 +42681,7 @@
         <v>46031.60143518518</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42738,7 +42738,7 @@
         <v>45470.5659837963</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42795,7 +42795,7 @@
         <v>45721.30579861111</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42852,7 +42852,7 @@
         <v>46030.30606481482</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42909,7 +42909,7 @@
         <v>45098</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44341.59855324074</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43028,7 +43028,7 @@
         <v>45608.36141203704</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43085,7 +43085,7 @@
         <v>44894</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         <v>45321</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43204,7 +43204,7 @@
         <v>45719.50620370371</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43261,7 +43261,7 @@
         <v>45315.47284722222</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43318,7 +43318,7 @@
         <v>45077.59108796297</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43375,7 +43375,7 @@
         <v>45077</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43432,7 +43432,7 @@
         <v>44853</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43494,7 +43494,7 @@
         <v>45566</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43551,7 +43551,7 @@
         <v>44991</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43608,7 +43608,7 @@
         <v>45022</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43665,7 +43665,7 @@
         <v>45254</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43722,7 +43722,7 @@
         <v>44963.83846064815</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43779,7 +43779,7 @@
         <v>45356.97445601852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43836,7 +43836,7 @@
         <v>45727.61193287037</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43893,7 +43893,7 @@
         <v>45267</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43955,7 +43955,7 @@
         <v>45394</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44012,7 +44012,7 @@
         <v>45307</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44069,7 +44069,7 @@
         <v>45106</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44126,7 +44126,7 @@
         <v>45180</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44183,7 +44183,7 @@
         <v>45379.38943287037</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44240,7 +44240,7 @@
         <v>45282.47112268519</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44297,7 +44297,7 @@
         <v>45465.77907407407</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44354,7 +44354,7 @@
         <v>45544</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44411,7 +44411,7 @@
         <v>45119</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44468,7 +44468,7 @@
         <v>44455</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44525,7 +44525,7 @@
         <v>45343</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         <v>45586</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44649,7 +44649,7 @@
         <v>44853</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44711,7 +44711,7 @@
         <v>44923</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44768,7 +44768,7 @@
         <v>45414.63265046296</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44825,7 +44825,7 @@
         <v>45334</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44882,7 +44882,7 @@
         <v>45646.37674768519</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44939,7 +44939,7 @@
         <v>45334.59233796296</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44996,7 +44996,7 @@
         <v>44972.35990740741</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45053,7 +45053,7 @@
         <v>45303</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45115,7 +45115,7 @@
         <v>44272</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45172,7 +45172,7 @@
         <v>45015</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45234,7 +45234,7 @@
         <v>45716.7922800926</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45291,7 +45291,7 @@
         <v>45476</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45348,7 +45348,7 @@
         <v>45525.35751157408</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45405,7 +45405,7 @@
         <v>45716.79393518518</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45462,7 +45462,7 @@
         <v>45043.86902777778</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45519,7 +45519,7 @@
         <v>45197.76050925926</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45576,7 +45576,7 @@
         <v>44476</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45638,7 +45638,7 @@
         <v>45474</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45695,7 +45695,7 @@
         <v>44419</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45757,7 +45757,7 @@
         <v>45253</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45814,7 +45814,7 @@
         <v>45182</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45876,7 +45876,7 @@
         <v>45461.56512731482</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45938,7 +45938,7 @@
         <v>44767</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45995,7 +45995,7 @@
         <v>45247</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46052,7 +46052,7 @@
         <v>44732</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46109,7 +46109,7 @@
         <v>44995.57435185185</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46166,7 +46166,7 @@
         <v>45106</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46223,7 +46223,7 @@
         <v>44596</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46280,7 +46280,7 @@
         <v>44992.69829861111</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46337,7 +46337,7 @@
         <v>45751.68946759259</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46394,7 +46394,7 @@
         <v>45165.41042824074</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46456,7 +46456,7 @@
         <v>45149</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46513,7 +46513,7 @@
         <v>45182.48615740741</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46575,7 +46575,7 @@
         <v>45247.58837962963</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46632,7 +46632,7 @@
         <v>45310</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46689,7 +46689,7 @@
         <v>45110</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>44910</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46803,7 +46803,7 @@
         <v>44933</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46860,7 +46860,7 @@
         <v>45685.59568287037</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         <v>45461.61435185185</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46979,7 +46979,7 @@
         <v>45278</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47036,7 +47036,7 @@
         <v>45278</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47093,7 +47093,7 @@
         <v>45506</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47150,7 +47150,7 @@
         <v>45506</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47207,7 +47207,7 @@
         <v>45119</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47264,7 +47264,7 @@
         <v>45141</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47321,7 +47321,7 @@
         <v>45141.35717592593</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47378,7 +47378,7 @@
         <v>44858</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47435,7 +47435,7 @@
         <v>44326</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47492,7 +47492,7 @@
         <v>44468</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47549,7 +47549,7 @@
         <v>45738</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47606,7 +47606,7 @@
         <v>45090</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47663,7 +47663,7 @@
         <v>45121</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47725,7 +47725,7 @@
         <v>45738</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47782,7 +47782,7 @@
         <v>45738.68306712963</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47839,7 +47839,7 @@
         <v>45566</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47896,7 +47896,7 @@
         <v>45357.59486111111</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47953,7 +47953,7 @@
         <v>45622.43130787037</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45712</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45189.37082175926</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48129,7 +48129,7 @@
         <v>45387</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48186,7 +48186,7 @@
         <v>44390</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48248,7 +48248,7 @@
         <v>44991</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48305,7 +48305,7 @@
         <v>44907</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48362,7 +48362,7 @@
         <v>45275.6518287037</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48424,7 +48424,7 @@
         <v>45119</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48481,7 +48481,7 @@
         <v>44694</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48538,7 +48538,7 @@
         <v>44946</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48595,7 +48595,7 @@
         <v>45737</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48652,7 +48652,7 @@
         <v>45777.38359953704</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48709,7 +48709,7 @@
         <v>45776</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48766,7 +48766,7 @@
         <v>45443.55804398148</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48823,7 +48823,7 @@
         <v>45574</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>45414.43387731481</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>45789</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48994,7 +48994,7 @@
         <v>45446</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         <v>44497</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49108,7 +49108,7 @@
         <v>45357</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49165,7 +49165,7 @@
         <v>45370</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49222,7 +49222,7 @@
         <v>45789.44635416667</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49279,7 +49279,7 @@
         <v>45603.68197916666</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49336,7 +49336,7 @@
         <v>45217</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49393,7 +49393,7 @@
         <v>45665.44717592592</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49450,7 +49450,7 @@
         <v>45233</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49507,7 +49507,7 @@
         <v>45700</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49564,7 +49564,7 @@
         <v>45183</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49621,7 +49621,7 @@
         <v>45517</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49678,7 +49678,7 @@
         <v>45498</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49735,7 +49735,7 @@
         <v>45533</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49792,7 +49792,7 @@
         <v>45797.48488425926</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49849,7 +49849,7 @@
         <v>45799.43543981481</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49911,7 +49911,7 @@
         <v>45799.43565972222</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49973,7 +49973,7 @@
         <v>45799.43751157408</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50035,7 +50035,7 @@
         <v>45799.43972222223</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50097,7 +50097,7 @@
         <v>45648.33399305555</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50154,7 +50154,7 @@
         <v>45800.78822916667</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50211,7 +50211,7 @@
         <v>45670</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50268,7 +50268,7 @@
         <v>45553.57224537037</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50325,7 +50325,7 @@
         <v>45804</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50382,7 +50382,7 @@
         <v>45804.419375</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50439,7 +50439,7 @@
         <v>45811.58686342592</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50496,7 +50496,7 @@
         <v>45810.60901620371</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50553,7 +50553,7 @@
         <v>45396</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50610,7 +50610,7 @@
         <v>45810.42681712963</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50667,7 +50667,7 @@
         <v>45812.55164351852</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44463</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45107</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45677</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>45222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>45911</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44328</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45357</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>45715</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>45925.46724537037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45966</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45272</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>45733</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45940</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>44823.61357638889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45189</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>45702</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>45957.68721064815</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>45315</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44463</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>44463</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2418,7 +2418,7 @@
         <v>45000</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>44494</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>45128</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>44840</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>45663</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2849,7 +2849,7 @@
         <v>45974.8231712963</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>45303</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44463</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3120,7 +3120,7 @@
         <v>46013.48835648148</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3215,7 +3215,7 @@
         <v>45363</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3301,7 +3301,7 @@
         <v>45580</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         <v>45016</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>45622</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         <v>45335</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>44767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44328</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>44314</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>44743</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>45089</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4182,7 +4182,7 @@
         <v>45702</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>44686</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4357,7 +4357,7 @@
         <v>45200.76865740741</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>45842.57001157408</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         <v>45492</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4612,7 +4612,7 @@
         <v>45477</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4697,7 +4697,7 @@
         <v>45929</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45929.58872685185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>45465.76983796297</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         <v>45930</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5037,7 +5037,7 @@
         <v>45930</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5122,7 +5122,7 @@
         <v>45931.56096064814</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>45511.41752314815</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5297,7 +5297,7 @@
         <v>45328</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         <v>45958.56099537037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>45958.54703703704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         <v>45727</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5641,7 +5641,7 @@
         <v>45093</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5731,7 +5731,7 @@
         <v>45139</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>45974.81770833334</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>45303</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>45337</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         <v>46035</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>45343</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6260,7 +6260,7 @@
         <v>45267</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>45302</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>45322</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>45506</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>45952</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>44918</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>45477</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>45727</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>44825</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>45015</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>45602</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>45812.44396990741</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44574</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>44348</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>44705</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44838.43608796296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44468.47100694444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7584,7 +7584,7 @@
         <v>44434</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>44449</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>44533</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>44286</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>44536</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>44670</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>44672.47938657407</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>44705</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>44452</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44725</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44560</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>44558</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>44744</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>44767</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>44460</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>44399.50987268519</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44435</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>44609</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44628</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44607</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44592.46954861111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44623.34907407407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44623.35771990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44410</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44354</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44837</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>44627</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>44442</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44888.49152777778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44744.04241898148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44368</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44461</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44491</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44596</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44362</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44412</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44412</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44328</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44841.68107638889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44862.57940972222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44866.56840277778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44706</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44813.41585648148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44433</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44384</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44767.50349537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44449</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44713.92694444444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44838.43405092593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44522</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44749.48130787037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44816.66179398148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44256</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10898,7 +10898,7 @@
         <v>44298</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10955,7 +10955,7 @@
         <v>44518.83491898148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11012,7 +11012,7 @@
         <v>44587.49263888889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>44685</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11131,7 +11131,7 @@
         <v>44419</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11188,7 +11188,7 @@
         <v>44341</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>44525</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>44645.58873842593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>44697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>44628</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>44428</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44672.46216435185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>45416</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>44399</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>45338.44405092593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>45112.96149305555</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
         <v>45636</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11882,7 +11882,7 @@
         <v>45520.56605324074</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>45474.65922453703</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>45121</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         <v>45144.5925</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         <v>44645.58700231482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         <v>45643</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         <v>45194</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         <v>45665</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         <v>45188.676875</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         <v>45554</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         <v>44824.37194444444</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         <v>44601.705</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         <v>45107.90287037037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         <v>45127</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         <v>45577.78436342593</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         <v>45577.78920138889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         <v>44743</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         <v>44744</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         <v>45419</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>45307</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>45198</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>45111</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>45132</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45544.68872685185</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         <v>44945</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         <v>45342.37055555556</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         <v>44846.37982638889</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         <v>45049</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         <v>45110.65657407408</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         <v>45300</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         <v>44634</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         <v>44743</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         <v>44961</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         <v>45468</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         <v>45503</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         <v>45665.44560185185</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         <v>45586</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14006,7 +14006,7 @@
         <v>45357</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14063,7 +14063,7 @@
         <v>45490</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14120,7 +14120,7 @@
         <v>45693.56855324074</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14177,7 +14177,7 @@
         <v>44655</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14234,7 +14234,7 @@
         <v>45465.78322916666</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14291,7 +14291,7 @@
         <v>45465.79103009259</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14348,7 +14348,7 @@
         <v>45482.58282407407</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14405,7 +14405,7 @@
         <v>45482.58454861111</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14462,7 +14462,7 @@
         <v>45405</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14519,7 +14519,7 @@
         <v>45007.58128472222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14576,7 +14576,7 @@
         <v>45738.68771990741</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14633,7 +14633,7 @@
         <v>45707.73159722222</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14690,7 +14690,7 @@
         <v>45343</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14752,7 +14752,7 @@
         <v>45544</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
         <v>45089</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14866,7 +14866,7 @@
         <v>45173</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14923,7 +14923,7 @@
         <v>45357</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14980,7 +14980,7 @@
         <v>45461.61268518519</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15042,7 +15042,7 @@
         <v>45749.39954861111</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>45116</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>45555</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15218,7 +15218,7 @@
         <v>45652.39358796296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15275,7 +15275,7 @@
         <v>45260</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15332,7 +15332,7 @@
         <v>44307.68211805556</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15389,7 +15389,7 @@
         <v>45233</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15446,7 +15446,7 @@
         <v>45233</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>45555</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>45204</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15617,7 +15617,7 @@
         <v>45582</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15674,7 +15674,7 @@
         <v>45761.43996527778</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15731,7 +15731,7 @@
         <v>45761.45442129629</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15788,7 +15788,7 @@
         <v>45574</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15845,7 +15845,7 @@
         <v>44487</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15902,7 +15902,7 @@
         <v>44938</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>45600</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16016,7 +16016,7 @@
         <v>45121</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>45343</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16140,7 +16140,7 @@
         <v>45343</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16202,7 +16202,7 @@
         <v>45121</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16264,7 +16264,7 @@
         <v>45544</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16321,7 +16321,7 @@
         <v>45477</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>45532</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>45265</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>45326</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>45244</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>44627</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>45586</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>45229</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>45887.44121527778</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>45496</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16906,7 +16906,7 @@
         <v>44537</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16963,7 +16963,7 @@
         <v>45119.4802662037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17020,7 +17020,7 @@
         <v>45887</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44513</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44984</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17191,7 +17191,7 @@
         <v>45714</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17248,7 +17248,7 @@
         <v>45887.4477662037</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17305,7 +17305,7 @@
         <v>45420.39774305555</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17362,7 +17362,7 @@
         <v>44767</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17419,7 +17419,7 @@
         <v>45561</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17476,7 +17476,7 @@
         <v>45532</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17533,7 +17533,7 @@
         <v>45532</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17590,7 +17590,7 @@
         <v>45338</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17647,7 +17647,7 @@
         <v>45577.79115740741</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17704,7 +17704,7 @@
         <v>44572</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17761,7 +17761,7 @@
         <v>45000.46664351852</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>45323</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44742</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>45825.66778935185</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>45446</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>45581.41429398148</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18108,7 +18108,7 @@
         <v>45889</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18165,7 +18165,7 @@
         <v>45168.51060185185</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18227,7 +18227,7 @@
         <v>44945</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18284,7 +18284,7 @@
         <v>45723.37791666666</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18341,7 +18341,7 @@
         <v>45843</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18398,7 +18398,7 @@
         <v>45477</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18455,7 +18455,7 @@
         <v>45895</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18512,7 +18512,7 @@
         <v>45895</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>45895</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18626,7 +18626,7 @@
         <v>45894.31759259259</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>45727</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>45737</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>45831.60479166666</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>45706</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>45737</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>45737</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19025,7 +19025,7 @@
         <v>45338</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19082,7 +19082,7 @@
         <v>45896</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19139,7 +19139,7 @@
         <v>45898</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19196,7 +19196,7 @@
         <v>45833.67045138889</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19253,7 +19253,7 @@
         <v>45832</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19315,7 +19315,7 @@
         <v>45085</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19372,7 +19372,7 @@
         <v>45898.60077546296</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19429,7 +19429,7 @@
         <v>45900.45480324074</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19486,7 +19486,7 @@
         <v>45900.47234953703</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19543,7 +19543,7 @@
         <v>44817</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45900.46728009259</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>44587</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19719,7 +19719,7 @@
         <v>45069.46530092593</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19776,7 +19776,7 @@
         <v>45835.58896990741</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>45898</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>45900.47006944445</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>45900.47556712963</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>45902.25947916666</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>45758</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20118,7 +20118,7 @@
         <v>45902.25789351852</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20175,7 +20175,7 @@
         <v>45440.58768518519</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20232,7 +20232,7 @@
         <v>45839</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>45364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20346,7 +20346,7 @@
         <v>45586.29178240741</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20403,7 +20403,7 @@
         <v>45839.73775462963</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20460,7 +20460,7 @@
         <v>45900.46421296296</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20517,7 +20517,7 @@
         <v>44774</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
         <v>45875</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20631,7 +20631,7 @@
         <v>45737</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20688,7 +20688,7 @@
         <v>45247</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20745,7 +20745,7 @@
         <v>45485.57604166667</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20802,7 +20802,7 @@
         <v>44249</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20859,7 +20859,7 @@
         <v>45609.57256944444</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20916,7 +20916,7 @@
         <v>45321</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20973,7 +20973,7 @@
         <v>45408.42017361111</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21030,7 +21030,7 @@
         <v>45736.56064814814</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21087,7 +21087,7 @@
         <v>45575.65561342592</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21144,7 +21144,7 @@
         <v>45014</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21201,7 +21201,7 @@
         <v>45736.79643518518</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21258,7 +21258,7 @@
         <v>45706</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21315,7 +21315,7 @@
         <v>45845.53</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21372,7 +21372,7 @@
         <v>45754</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21429,7 +21429,7 @@
         <v>45715</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21486,7 +21486,7 @@
         <v>45845.53181712963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21543,7 +21543,7 @@
         <v>45244</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21605,7 +21605,7 @@
         <v>45792</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21662,7 +21662,7 @@
         <v>45119</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21719,7 +21719,7 @@
         <v>45121.80873842593</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21781,7 +21781,7 @@
         <v>45915.57407407407</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21838,7 +21838,7 @@
         <v>45723.3765625</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21895,7 +21895,7 @@
         <v>45723.37921296297</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21952,7 +21952,7 @@
         <v>45583.33128472222</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22009,7 +22009,7 @@
         <v>45915.34508101852</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22066,7 +22066,7 @@
         <v>45846.5358912037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22123,7 +22123,7 @@
         <v>44847</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22180,7 +22180,7 @@
         <v>45915.88474537037</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22237,7 +22237,7 @@
         <v>45281</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22294,7 +22294,7 @@
         <v>44390</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22356,7 +22356,7 @@
         <v>45568</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22418,7 +22418,7 @@
         <v>45818</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22475,7 +22475,7 @@
         <v>45875</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22532,7 +22532,7 @@
         <v>45916.46348379629</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22589,7 +22589,7 @@
         <v>45554</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>45749.41003472222</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22703,7 +22703,7 @@
         <v>45854.68505787037</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22760,7 +22760,7 @@
         <v>45856.71502314815</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22817,7 +22817,7 @@
         <v>45901</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22874,7 +22874,7 @@
         <v>45860.43425925926</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22931,7 +22931,7 @@
         <v>45860.43550925926</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22988,7 +22988,7 @@
         <v>45923.62017361111</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23045,7 +23045,7 @@
         <v>45862.72125</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23102,7 +23102,7 @@
         <v>45226</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23159,7 +23159,7 @@
         <v>45903</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23216,7 +23216,7 @@
         <v>45925.66001157407</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23278,7 +23278,7 @@
         <v>45668.65929398148</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23335,7 +23335,7 @@
         <v>45668.70152777778</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23392,7 +23392,7 @@
         <v>45925.4690625</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23449,7 +23449,7 @@
         <v>45827.68927083333</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23506,7 +23506,7 @@
         <v>44712</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23568,7 +23568,7 @@
         <v>45925.46439814815</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23625,7 +23625,7 @@
         <v>44855</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23682,7 +23682,7 @@
         <v>45925.46207175926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23739,7 +23739,7 @@
         <v>45929</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23796,7 +23796,7 @@
         <v>45098.66982638889</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23853,7 +23853,7 @@
         <v>45166</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23910,7 +23910,7 @@
         <v>45166</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23967,7 +23967,7 @@
         <v>45258</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24024,7 +24024,7 @@
         <v>44595</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24081,7 +24081,7 @@
         <v>45470</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24138,7 +24138,7 @@
         <v>45929.61524305555</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24195,7 +24195,7 @@
         <v>45926.65568287037</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24252,7 +24252,7 @@
         <v>45027</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24309,7 +24309,7 @@
         <v>45930</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24371,7 +24371,7 @@
         <v>45465.77428240741</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24428,7 +24428,7 @@
         <v>45930</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24485,7 +24485,7 @@
         <v>45144</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24542,7 +24542,7 @@
         <v>45144</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24604,7 +24604,7 @@
         <v>45930</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24661,7 +24661,7 @@
         <v>45831.6021875</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24718,7 +24718,7 @@
         <v>45331</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24775,7 +24775,7 @@
         <v>45579</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24832,7 +24832,7 @@
         <v>45931.56511574074</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24894,7 +24894,7 @@
         <v>45707.7328587963</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24951,7 +24951,7 @@
         <v>45338</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25013,7 +25013,7 @@
         <v>45874.49202546296</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25070,7 +25070,7 @@
         <v>45874.49907407408</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25127,7 +25127,7 @@
         <v>45874</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25184,7 +25184,7 @@
         <v>45874.49726851852</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25241,7 +25241,7 @@
         <v>45874.50575231481</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25298,7 +25298,7 @@
         <v>45874.61452546297</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25355,7 +25355,7 @@
         <v>45874.50697916667</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25412,7 +25412,7 @@
         <v>45874</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25469,7 +25469,7 @@
         <v>45874.49295138889</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25526,7 +25526,7 @@
         <v>45874.50819444445</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25583,7 +25583,7 @@
         <v>45755</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25640,7 +25640,7 @@
         <v>45755</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25697,7 +25697,7 @@
         <v>45755</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25754,7 +25754,7 @@
         <v>45083</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25816,7 +25816,7 @@
         <v>45933.73827546297</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25873,7 +25873,7 @@
         <v>45876.90118055556</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25930,7 +25930,7 @@
         <v>44713</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25992,7 +25992,7 @@
         <v>45558.63395833333</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26054,7 +26054,7 @@
         <v>45581.51094907407</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45558.67956018518</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26178,7 +26178,7 @@
         <v>45558.68189814815</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26240,7 +26240,7 @@
         <v>45607.59041666667</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26302,7 +26302,7 @@
         <v>45607.58175925926</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26364,7 +26364,7 @@
         <v>44607</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26421,7 +26421,7 @@
         <v>45035</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26478,7 +26478,7 @@
         <v>45915</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26535,7 +26535,7 @@
         <v>44274</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         <v>45644</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>45546</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>45558.61697916667</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>45558.62166666667</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>45159</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>45558.66828703704</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26954,7 +26954,7 @@
         <v>45418</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27016,7 +27016,7 @@
         <v>45581.49773148148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27078,7 +27078,7 @@
         <v>44840</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27135,7 +27135,7 @@
         <v>45883.34923611111</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27192,7 +27192,7 @@
         <v>45939.46443287037</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27249,7 +27249,7 @@
         <v>45939.46699074074</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27306,7 +27306,7 @@
         <v>45355.47297453704</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27363,7 +27363,7 @@
         <v>45083</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27425,7 +27425,7 @@
         <v>45883.39725694444</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27482,7 +27482,7 @@
         <v>45882.55253472222</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27539,7 +27539,7 @@
         <v>45198</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27596,7 +27596,7 @@
         <v>44544.54547453704</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27653,7 +27653,7 @@
         <v>45511.57498842593</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27710,7 +27710,7 @@
         <v>45938.77130787037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27767,7 +27767,7 @@
         <v>44846</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27829,7 +27829,7 @@
         <v>45939.44630787037</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27886,7 +27886,7 @@
         <v>45646.55054398148</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27948,7 +27948,7 @@
         <v>45939.47542824074</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28005,7 +28005,7 @@
         <v>45938</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28062,7 +28062,7 @@
         <v>45589.77721064815</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28119,7 +28119,7 @@
         <v>45939.59577546296</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28176,7 +28176,7 @@
         <v>45577.78651620371</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28233,7 +28233,7 @@
         <v>45939.47030092592</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28290,7 +28290,7 @@
         <v>45607.78885416667</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28352,7 +28352,7 @@
         <v>45554</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28409,7 +28409,7 @@
         <v>45533</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28466,7 +28466,7 @@
         <v>45943.6071875</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28523,7 +28523,7 @@
         <v>45943.5743287037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28580,7 +28580,7 @@
         <v>45945.68521990741</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28637,7 +28637,7 @@
         <v>45729.81550925926</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28694,7 +28694,7 @@
         <v>45568</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28751,7 +28751,7 @@
         <v>45700</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28808,7 +28808,7 @@
         <v>45884.56550925926</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28865,7 +28865,7 @@
         <v>45020</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28927,7 +28927,7 @@
         <v>45945.68832175926</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28984,7 +28984,7 @@
         <v>45197</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29041,7 +29041,7 @@
         <v>45197</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29098,7 +29098,7 @@
         <v>45646.46715277778</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>45884.300625</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>45945.68895833333</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>45945.68956018519</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>45103.5831712963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>45947</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29445,7 +29445,7 @@
         <v>45887.4405787037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29502,7 +29502,7 @@
         <v>45887.44887731481</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29559,7 +29559,7 @@
         <v>45190</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29616,7 +29616,7 @@
         <v>44984</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29673,7 +29673,7 @@
         <v>44858</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29730,7 +29730,7 @@
         <v>45226</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>44599.41950231481</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>45134.8561574074</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>44876</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29958,7 +29958,7 @@
         <v>44915</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30020,7 +30020,7 @@
         <v>45366.37332175926</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30077,7 +30077,7 @@
         <v>45315</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>45467.36152777778</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>45247</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44995</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>45953.37246527777</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30362,7 +30362,7 @@
         <v>45748</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30419,7 +30419,7 @@
         <v>45748</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30476,7 +30476,7 @@
         <v>44795.58869212963</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30533,7 +30533,7 @@
         <v>45002.67038194444</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30595,7 +30595,7 @@
         <v>45954.356875</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30657,7 +30657,7 @@
         <v>45954.36238425926</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>45755</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>45328</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>44767</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>44904</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30947,7 +30947,7 @@
         <v>45958.53815972222</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31004,7 +31004,7 @@
         <v>44847</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31061,7 +31061,7 @@
         <v>45644.81020833334</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>45960.83756944445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31185,7 +31185,7 @@
         <v>45960.36130787037</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31247,7 +31247,7 @@
         <v>45960.84490740741</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>45960.82561342593</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>45803</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>45426</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>44918</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>45963</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31594,7 +31594,7 @@
         <v>45963.82510416667</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>45763.75098379629</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>45049</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>45969.39774305555</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>45386.59263888889</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>45377</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45973.61690972222</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45737</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>45738.65178240741</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>45762.7953587963</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>45972</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>45973.58697916667</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32293,7 +32293,7 @@
         <v>45412</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32350,7 +32350,7 @@
         <v>45973.40318287037</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32412,7 +32412,7 @@
         <v>45973.60923611111</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32494,7 +32494,7 @@
         <v>45974.72283564815</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44866.5670949074</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>45370</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>45370</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44923</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>45187</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>45009.64487268519</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>45979.67366898148</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44993</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>45978.84071759259</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>45600.62240740741</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>45979</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>45343</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44497</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>45352</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>45337</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33416,7 +33416,7 @@
         <v>44818</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33473,7 +33473,7 @@
         <v>45981.78496527778</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>45981.79851851852</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33597,7 +33597,7 @@
         <v>45128</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33654,7 +33654,7 @@
         <v>45981.79371527778</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33716,7 +33716,7 @@
         <v>44684.59604166666</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33773,7 +33773,7 @@
         <v>45981.79671296296</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33835,7 +33835,7 @@
         <v>45985.64399305556</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33892,7 +33892,7 @@
         <v>45985.64126157408</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33949,7 +33949,7 @@
         <v>45558.35518518519</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34006,7 +34006,7 @@
         <v>45987.47050925926</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34068,7 +34068,7 @@
         <v>45986.48920138889</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34125,7 +34125,7 @@
         <v>45478</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34182,7 +34182,7 @@
         <v>45763.74811342593</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34239,7 +34239,7 @@
         <v>45989.74815972222</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>45180</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>45307</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34420,7 +34420,7 @@
         <v>45197</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>44879</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34539,7 +34539,7 @@
         <v>45260</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         <v>45993.59104166667</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34658,7 +34658,7 @@
         <v>45993.59319444445</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34720,7 +34720,7 @@
         <v>45993.59519675926</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34782,7 +34782,7 @@
         <v>45989.75074074074</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34844,7 +34844,7 @@
         <v>45012.58659722222</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34901,7 +34901,7 @@
         <v>45993.58829861111</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34963,7 +34963,7 @@
         <v>45121</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35025,7 +35025,7 @@
         <v>45700</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35082,7 +35082,7 @@
         <v>46036.62605324074</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35139,7 +35139,7 @@
         <v>46036.6215162037</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35196,7 +35196,7 @@
         <v>46036.59356481482</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         <v>46036.6240625</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35310,7 +35310,7 @@
         <v>45995</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35367,7 +35367,7 @@
         <v>45267</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35429,7 +35429,7 @@
         <v>45267</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45648.28662037037</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>44816</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>45664.5075</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35662,7 +35662,7 @@
         <v>46035.49152777778</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35719,7 +35719,7 @@
         <v>45455</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35776,7 +35776,7 @@
         <v>45999.5834837963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35838,7 +35838,7 @@
         <v>45343</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45149.61890046296</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35957,7 +35957,7 @@
         <v>45232.85101851852</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36014,7 +36014,7 @@
         <v>45311</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36071,7 +36071,7 @@
         <v>45072</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36128,7 +36128,7 @@
         <v>45573</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>46041.46825231481</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>46041.47547453704</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>46041.66765046296</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>45144.55350694444</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36423,7 +36423,7 @@
         <v>45586</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36485,7 +36485,7 @@
         <v>45526.54428240741</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36542,7 +36542,7 @@
         <v>45996</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36599,7 +36599,7 @@
         <v>46042.66351851852</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36656,7 +36656,7 @@
         <v>46043.69572916667</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36713,7 +36713,7 @@
         <v>45709</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36770,7 +36770,7 @@
         <v>44628</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36827,7 +36827,7 @@
         <v>45712</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36884,7 +36884,7 @@
         <v>45712</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36941,7 +36941,7 @@
         <v>46042.66019675926</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36998,7 +36998,7 @@
         <v>45723</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37055,7 +37055,7 @@
         <v>45668.69042824074</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37112,7 +37112,7 @@
         <v>46043.68041666667</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37169,7 +37169,7 @@
         <v>46043.69855324074</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37226,7 +37226,7 @@
         <v>46001.79890046296</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37283,7 +37283,7 @@
         <v>45408</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>45573</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>45453</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37459,7 +37459,7 @@
         <v>46043.69349537037</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37516,7 +37516,7 @@
         <v>45568</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37573,7 +37573,7 @@
         <v>45398</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37630,7 +37630,7 @@
         <v>45846</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37687,7 +37687,7 @@
         <v>45112</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37749,7 +37749,7 @@
         <v>45054</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37806,7 +37806,7 @@
         <v>45194</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37863,7 +37863,7 @@
         <v>45546</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37920,7 +37920,7 @@
         <v>46006</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37977,7 +37977,7 @@
         <v>46048.6058449074</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38039,7 +38039,7 @@
         <v>45085.5793287037</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38096,7 +38096,7 @@
         <v>44992</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38153,7 +38153,7 @@
         <v>46007.64255787037</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38210,7 +38210,7 @@
         <v>45306</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38267,7 +38267,7 @@
         <v>45307</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38324,7 +38324,7 @@
         <v>46008.45972222222</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38381,7 +38381,7 @@
         <v>45607.78569444444</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38443,7 +38443,7 @@
         <v>45493.90299768518</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38500,7 +38500,7 @@
         <v>45387.745625</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38557,7 +38557,7 @@
         <v>44463</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38614,7 +38614,7 @@
         <v>45474</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38671,7 +38671,7 @@
         <v>45189</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38728,7 +38728,7 @@
         <v>45282</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38785,7 +38785,7 @@
         <v>45274</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38842,7 +38842,7 @@
         <v>46050</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38899,7 +38899,7 @@
         <v>46055.05668981482</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38956,7 +38956,7 @@
         <v>45737</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39013,7 +39013,7 @@
         <v>45265</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39070,7 +39070,7 @@
         <v>45593</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39127,7 +39127,7 @@
         <v>46013.47608796296</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39189,7 +39189,7 @@
         <v>46050</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39246,7 +39246,7 @@
         <v>44971</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39303,7 +39303,7 @@
         <v>44893.61615740741</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39360,7 +39360,7 @@
         <v>44729</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39417,7 +39417,7 @@
         <v>46057.45541666666</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39474,7 +39474,7 @@
         <v>46031</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39531,7 +39531,7 @@
         <v>45336</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39588,7 +39588,7 @@
         <v>45420</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39645,7 +39645,7 @@
         <v>45079</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39702,7 +39702,7 @@
         <v>45315</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39759,7 +39759,7 @@
         <v>45120.63530092593</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39816,7 +39816,7 @@
         <v>45307</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39878,7 +39878,7 @@
         <v>45002</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39935,7 +39935,7 @@
         <v>45803</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -39992,7 +39992,7 @@
         <v>45465.73241898148</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40049,7 +40049,7 @@
         <v>45012</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40106,7 +40106,7 @@
         <v>45831</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40163,7 +40163,7 @@
         <v>45833</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40220,7 +40220,7 @@
         <v>46035</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40277,7 +40277,7 @@
         <v>45228</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40334,7 +40334,7 @@
         <v>46041</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40391,7 +40391,7 @@
         <v>45845</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40448,7 +40448,7 @@
         <v>45343</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40510,7 +40510,7 @@
         <v>46043.67734953704</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40567,7 +40567,7 @@
         <v>45468</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40624,7 +40624,7 @@
         <v>46065</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40681,7 +40681,7 @@
         <v>46066.72431712963</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40738,7 +40738,7 @@
         <v>46069.49875</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40795,7 +40795,7 @@
         <v>45042.68837962963</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40852,7 +40852,7 @@
         <v>45894</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40909,7 +40909,7 @@
         <v>45672</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40966,7 +40966,7 @@
         <v>45338</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41023,7 +41023,7 @@
         <v>46041</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41080,7 +41080,7 @@
         <v>45894</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41137,7 +41137,7 @@
         <v>45894</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41194,7 +41194,7 @@
         <v>46066.71862268518</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41251,7 +41251,7 @@
         <v>46057.36145833333</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41308,7 +41308,7 @@
         <v>45946</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41365,7 +41365,7 @@
         <v>45110</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41422,7 +41422,7 @@
         <v>46041</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41479,7 +41479,7 @@
         <v>45385</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41536,7 +41536,7 @@
         <v>45014</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41593,7 +41593,7 @@
         <v>44988</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41655,7 +41655,7 @@
         <v>45415</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41712,7 +41712,7 @@
         <v>44998</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41769,7 +41769,7 @@
         <v>45019.48450231482</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
         <v>45124</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41883,7 +41883,7 @@
         <v>44497</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41940,7 +41940,7 @@
         <v>45945</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -41997,7 +41997,7 @@
         <v>46031.60064814815</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42054,7 +42054,7 @@
         <v>45307</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42111,7 +42111,7 @@
         <v>44894</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42168,7 +42168,7 @@
         <v>44419</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42225,7 +42225,7 @@
         <v>45465.78670138889</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42282,7 +42282,7 @@
         <v>46030.36016203704</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42339,7 +42339,7 @@
         <v>46030.35733796296</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42396,7 +42396,7 @@
         <v>46030.36341435185</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42453,7 +42453,7 @@
         <v>45882</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42510,7 +42510,7 @@
         <v>45191</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42567,7 +42567,7 @@
         <v>45300.66396990741</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42624,7 +42624,7 @@
         <v>45301.39177083333</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42681,7 +42681,7 @@
         <v>46031.60143518518</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42738,7 +42738,7 @@
         <v>45470.5659837963</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42795,7 +42795,7 @@
         <v>45721.30579861111</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42852,7 +42852,7 @@
         <v>46030.30606481482</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42909,7 +42909,7 @@
         <v>45098</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -42966,7 +42966,7 @@
         <v>44341.59855324074</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43028,7 +43028,7 @@
         <v>45608.36141203704</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43085,7 +43085,7 @@
         <v>44894</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43147,7 +43147,7 @@
         <v>45321</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43204,7 +43204,7 @@
         <v>45719.50620370371</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43261,7 +43261,7 @@
         <v>45315.47284722222</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43318,7 +43318,7 @@
         <v>45077.59108796297</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43375,7 +43375,7 @@
         <v>45077</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43432,7 +43432,7 @@
         <v>44853</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43494,7 +43494,7 @@
         <v>45566</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43551,7 +43551,7 @@
         <v>44991</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43608,7 +43608,7 @@
         <v>45022</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43665,7 +43665,7 @@
         <v>45254</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43722,7 +43722,7 @@
         <v>44963.83846064815</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43779,7 +43779,7 @@
         <v>45356.97445601852</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43836,7 +43836,7 @@
         <v>45727.61193287037</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43893,7 +43893,7 @@
         <v>45267</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43955,7 +43955,7 @@
         <v>45394</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44012,7 +44012,7 @@
         <v>45307</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44069,7 +44069,7 @@
         <v>45106</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44126,7 +44126,7 @@
         <v>45180</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44183,7 +44183,7 @@
         <v>45379.38943287037</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44240,7 +44240,7 @@
         <v>45282.47112268519</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44297,7 +44297,7 @@
         <v>45465.77907407407</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44354,7 +44354,7 @@
         <v>45544</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44411,7 +44411,7 @@
         <v>45119</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44468,7 +44468,7 @@
         <v>44455</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44525,7 +44525,7 @@
         <v>45343</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44587,7 +44587,7 @@
         <v>45586</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44649,7 +44649,7 @@
         <v>44853</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44711,7 +44711,7 @@
         <v>44923</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44768,7 +44768,7 @@
         <v>45414.63265046296</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44825,7 +44825,7 @@
         <v>45334</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44882,7 +44882,7 @@
         <v>45646.37674768519</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44939,7 +44939,7 @@
         <v>45334.59233796296</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -44996,7 +44996,7 @@
         <v>44972.35990740741</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45053,7 +45053,7 @@
         <v>45303</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45115,7 +45115,7 @@
         <v>44272</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45172,7 +45172,7 @@
         <v>45015</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45234,7 +45234,7 @@
         <v>45716.7922800926</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45291,7 +45291,7 @@
         <v>45476</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45348,7 +45348,7 @@
         <v>45525.35751157408</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45405,7 +45405,7 @@
         <v>45716.79393518518</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45462,7 +45462,7 @@
         <v>45043.86902777778</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45519,7 +45519,7 @@
         <v>45197.76050925926</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45576,7 +45576,7 @@
         <v>44476</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45638,7 +45638,7 @@
         <v>45474</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45695,7 +45695,7 @@
         <v>44419</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45757,7 +45757,7 @@
         <v>45253</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45814,7 +45814,7 @@
         <v>45182</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45876,7 +45876,7 @@
         <v>45461.56512731482</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45938,7 +45938,7 @@
         <v>44767</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45995,7 +45995,7 @@
         <v>45247</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46052,7 +46052,7 @@
         <v>44732</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46109,7 +46109,7 @@
         <v>44995.57435185185</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46166,7 +46166,7 @@
         <v>45106</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46223,7 +46223,7 @@
         <v>44596</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46280,7 +46280,7 @@
         <v>44992.69829861111</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46337,7 +46337,7 @@
         <v>45751.68946759259</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46394,7 +46394,7 @@
         <v>45165.41042824074</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46456,7 +46456,7 @@
         <v>45149</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46513,7 +46513,7 @@
         <v>45182.48615740741</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46575,7 +46575,7 @@
         <v>45247.58837962963</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46632,7 +46632,7 @@
         <v>45310</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46689,7 +46689,7 @@
         <v>45110</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>44910</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46803,7 +46803,7 @@
         <v>44933</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46860,7 +46860,7 @@
         <v>45685.59568287037</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46917,7 +46917,7 @@
         <v>45461.61435185185</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46979,7 +46979,7 @@
         <v>45278</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47036,7 +47036,7 @@
         <v>45278</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47093,7 +47093,7 @@
         <v>45506</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47150,7 +47150,7 @@
         <v>45506</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47207,7 +47207,7 @@
         <v>45119</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47264,7 +47264,7 @@
         <v>45141</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47321,7 +47321,7 @@
         <v>45141.35717592593</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47378,7 +47378,7 @@
         <v>44858</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47435,7 +47435,7 @@
         <v>44326</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47492,7 +47492,7 @@
         <v>44468</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47549,7 +47549,7 @@
         <v>45738</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47606,7 +47606,7 @@
         <v>45090</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47663,7 +47663,7 @@
         <v>45121</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47725,7 +47725,7 @@
         <v>45738</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47782,7 +47782,7 @@
         <v>45738.68306712963</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47839,7 +47839,7 @@
         <v>45566</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47896,7 +47896,7 @@
         <v>45357.59486111111</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47953,7 +47953,7 @@
         <v>45622.43130787037</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48010,7 +48010,7 @@
         <v>45712</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48067,7 +48067,7 @@
         <v>45189.37082175926</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48129,7 +48129,7 @@
         <v>45387</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48186,7 +48186,7 @@
         <v>44390</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48248,7 +48248,7 @@
         <v>44991</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48305,7 +48305,7 @@
         <v>44907</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48362,7 +48362,7 @@
         <v>45275.6518287037</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48424,7 +48424,7 @@
         <v>45119</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48481,7 +48481,7 @@
         <v>44694</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48538,7 +48538,7 @@
         <v>44946</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48595,7 +48595,7 @@
         <v>45737</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48652,7 +48652,7 @@
         <v>45777.38359953704</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48709,7 +48709,7 @@
         <v>45776</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48766,7 +48766,7 @@
         <v>45443.55804398148</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48823,7 +48823,7 @@
         <v>45574</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>45414.43387731481</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48937,7 +48937,7 @@
         <v>45789</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48994,7 +48994,7 @@
         <v>45446</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49051,7 +49051,7 @@
         <v>44497</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49108,7 +49108,7 @@
         <v>45357</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49165,7 +49165,7 @@
         <v>45370</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49222,7 +49222,7 @@
         <v>45789.44635416667</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49279,7 +49279,7 @@
         <v>45603.68197916666</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49336,7 +49336,7 @@
         <v>45217</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49393,7 +49393,7 @@
         <v>45665.44717592592</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49450,7 +49450,7 @@
         <v>45233</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49507,7 +49507,7 @@
         <v>45700</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49564,7 +49564,7 @@
         <v>45183</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49621,7 +49621,7 @@
         <v>45517</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49678,7 +49678,7 @@
         <v>45498</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49735,7 +49735,7 @@
         <v>45533</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49792,7 +49792,7 @@
         <v>45797.48488425926</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49849,7 +49849,7 @@
         <v>45799.43543981481</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49911,7 +49911,7 @@
         <v>45799.43565972222</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49973,7 +49973,7 @@
         <v>45799.43751157408</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50035,7 +50035,7 @@
         <v>45799.43972222223</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50097,7 +50097,7 @@
         <v>45648.33399305555</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50154,7 +50154,7 @@
         <v>45800.78822916667</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50211,7 +50211,7 @@
         <v>45670</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50268,7 +50268,7 @@
         <v>45553.57224537037</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50325,7 +50325,7 @@
         <v>45804</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50382,7 +50382,7 @@
         <v>45804.419375</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50439,7 +50439,7 @@
         <v>45811.58686342592</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50496,7 +50496,7 @@
         <v>45810.60901620371</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50553,7 +50553,7 @@
         <v>45396</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50610,7 +50610,7 @@
         <v>45810.42681712963</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50667,7 +50667,7 @@
         <v>45812.55164351852</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44463</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45107</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45677</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>45222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>45911</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44328</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45357</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>45715</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>45925.46724537037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45966</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45733</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>45272</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45940</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>44823.61357638889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>44463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>45000</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45702</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>45957.68721064815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>45189</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45315</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44463</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>44494</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>45128</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>44840</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44463</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45016</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45663</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45974.8231712963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>45335</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45622</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>46013.48835648148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>45363</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>45303</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>44767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44328</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>44314</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>44743</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>45267</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>45337</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45477</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>45139</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>45465.76983796297</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44918</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>45492</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45200.76865740741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45812.44396990741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45842.57001157408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>44825</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>45930</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>45929.58872685185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>45929</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>45702</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>45477</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45089</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>45931.56096064814</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45511.41752314815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>45015</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>45343</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45958.56099537037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>45958.54703703704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>45727</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>45322</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>45974.81770833334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44686</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>45328</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>45302</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>45952</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>46035</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>45506</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>45303</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>45727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>45602</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44574</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>44348</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>44705</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44838.43608796296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>44468.47100694444</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>44449</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>44533</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>44286</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>44536</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>44670</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>44725</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>44560</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>44558</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44672.47938657407</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>44452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>44767</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>44744</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>44460</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>44435</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44399.50987268519</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>44609</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44628</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44607</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44592.46954861111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44623.34907407407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44623.35771990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44410</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44354</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44837</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>44627</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>44442</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44888.49152777778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44368</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44744.04241898148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44461</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44491</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44596</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44362</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44412</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44412</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44328</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44841.68107638889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44862.57940972222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44866.56840277778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44706</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44813.41585648148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44433</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44384</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44767.50349537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44449</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44713.92694444444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44838.43405092593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44522</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44749.48130787037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44816.66179398148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44341</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44256</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>44518.83491898148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>44298</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>44587.49263888889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         <v>44419</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>44685</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>44525</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>44645.58873842593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>44697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>44428</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>44628</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44672.46216435185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>44742</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>45035</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>45482.58282407407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>45482.58454861111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>45043.86902777778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>44846</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>45532</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>45532</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>45300</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>45232.85101851852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>45321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44893.61615740741</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>45379.38943287037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>45336</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>45357</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>45416</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44455</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44847</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>45763.74811342593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45461.56512731482</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45420</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45762.7953587963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45533</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>45461.61268518519</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>45197</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>45197</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>44487</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>45323</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45121</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>45144</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>45144</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45586</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44419</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>45465.78670138889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>45265</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>45470</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>45461.61435185185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>45468</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>45465.77428240741</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44818</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>45419</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>45282</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>45506</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>45485.57604166667</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45337</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>45511.57498842593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>45303</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44497</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>45574</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45737</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45589.77721064815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>45573</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>45804.419375</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44993</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45884.56550925926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45883.39725694444</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45884.300625</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44419</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44995</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>45396</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44938</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>45714</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>45646.55054398148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>45749.39954861111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>45810.60901620371</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>45408</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>45887.44121527778</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>45887.4477662037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44599.41950231481</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>45810.42681712963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>45812.55164351852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>45887.4405787037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>45887.44887731481</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>45887</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45120.63530092593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>45581.41429398148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>45811.58686342592</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45103.5831712963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44910</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44923</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>45577.78436342593</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>45577.78920138889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>45420.39774305555</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>45198</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>44537</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>45042.68837962963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>45338.44405092593</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>45894.31759259259</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>45583.33128472222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>45575.65561342592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>45825.66778935185</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>45843</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>45896</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>45895</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>45895</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>45895</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17300,7 +17300,7 @@
         <v>45898</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17357,7 +17357,7 @@
         <v>44971</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>45898</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>45898.60077546296</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         <v>45900.47006944445</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17585,7 +17585,7 @@
         <v>45900.47556712963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>45544</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>44946</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>45579</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>45900.45480324074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45706</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>44399</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>45900.46728009259</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>45902.25789351852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>45900.47234953703</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>45902.25947916666</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>45737</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44743</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44744</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>45832</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>45228</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>45900.46421296296</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>45737</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18616,7 +18616,7 @@
         <v>45737</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18673,7 +18673,7 @@
         <v>44988</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45723.3765625</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45723.37921296297</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45085.5793287037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45831.60479166666</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45875</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45737</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45525.35751157408</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45398</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45738.68771990741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45833.67045138889</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45835.58896990741</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45107.90287037037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45343</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45440.58768518519</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>45586</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45758</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>45712</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>45712</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>45343</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>44634</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>45355.47297453704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>45180</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>45839</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>45121</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>45121</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>45112.96149305555</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>45839.73775462963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45577.79115740741</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45307</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>45600</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>45321</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>45408.42017361111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>45845.53</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>45715</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>45736.56064814814</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20760,7 +20760,7 @@
         <v>44463</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20817,7 +20817,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20874,7 +20874,7 @@
         <v>45845.53181712963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>44995.57435185185</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
         <v>45706</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45736.79643518518</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45079</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45166</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>45609.57256944444</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>45846.5358912037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21330,7 +21330,7 @@
         <v>45754</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21387,7 +21387,7 @@
         <v>45672</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
         <v>45792</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>45077.59108796297</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>45077</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>45144.55350694444</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>45119</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44992</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>45275.6518287037</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21910,7 +21910,7 @@
         <v>45166</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21967,7 +21967,7 @@
         <v>45749.41003472222</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         <v>45568</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>45818</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>45915.88474537037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>45915.34508101852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22257,7 +22257,7 @@
         <v>45915.57407407407</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44390</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>45854.68505787037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>45856.71502314815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>45916.46348379629</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>45465.73241898148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45860.43550925926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>45860.43425925926</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>45014</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>45875</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>45901</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>45903</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>45862.72125</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>45827.68927083333</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>45644.81020833334</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45357</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>45668.70152777778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44712</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>44341.59855324074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45015</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45923.62017361111</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44795.58869212963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45707.7328587963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>45925.4690625</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>45925.66001157407</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45874.49202546296</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45187</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45925.46207175926</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>45925.46439814815</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>45874.49907407408</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45693.56855324074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45926.65568287037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45831.6021875</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>45930</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>45874.50697916667</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>45874</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>45455</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>45929.61524305555</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>45930</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45930</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>45929</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>45874.61452546297</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>45874.49295138889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>45874.50819444445</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44307.68211805556</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>45874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>45874.49726851852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>45874.50575231481</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44476</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>45707.73159722222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45876.90118055556</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>45709</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>45544.68872685185</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         <v>45558.67956018518</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>45558.68189814815</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45581.51094907407</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>45882.55253472222</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>44713</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>45418</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45546</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>45581.49773148148</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>45607.58175925926</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45558.61697916667</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45558.62166666667</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45558.66828703704</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45558.63395833333</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45931.56511574074</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44607</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>45089</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26295,7 +26295,7 @@
         <v>45607.59041666667</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>45933.73827546297</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>45915</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>45110</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>45111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>45247</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>45554</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>45938</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>45334.59233796296</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>45738.65178240741</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26984,7 +26984,7 @@
         <v>45883.34923611111</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>45197</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>44468</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>45939.47030092592</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27212,7 +27212,7 @@
         <v>45939.47542824074</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27269,7 +27269,7 @@
         <v>45938.77130787037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27326,7 +27326,7 @@
         <v>45083</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27388,7 +27388,7 @@
         <v>45474</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27445,7 +27445,7 @@
         <v>44918</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27502,7 +27502,7 @@
         <v>45939.46699074074</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>45939.46443287037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27616,7 +27616,7 @@
         <v>45012.58659722222</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27673,7 +27673,7 @@
         <v>45939.59577546296</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27730,7 +27730,7 @@
         <v>45939.44630787037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>44991</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>45943.5743287037</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>45723.37791666666</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>45943.6071875</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>45465.78322916666</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>45465.79103009259</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>45700</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>45568</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>45945.68521990741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>45069.46530092593</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>45226</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>45945.68832175926</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28528,7 +28528,7 @@
         <v>45945.68895833333</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28585,7 +28585,7 @@
         <v>45945.68956018519</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28642,7 +28642,7 @@
         <v>44846.37982638889</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>45947</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>45646.46715277778</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>45119</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>45260</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>45763.75098379629</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>45555</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>45493.90299768518</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>45342.37055555556</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>45953.37246527777</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>45738</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>45738.68306712963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>45954.356875</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>45954.36238425926</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>45761.43996527778</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>45311</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>45307</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>45110</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>45761.45442129629</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>45582</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>45366.37332175926</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>45446</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>45307</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>45716.79393518518</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>45958.53815972222</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>45566</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44894</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>45960.36130787037</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>45727.61193287037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>45963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>45963.82510416667</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>45960.84490740741</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>45343</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45960.82561342593</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45960.83756944445</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45803</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>45247.58837962963</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>45338</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45119</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>45098.66982638889</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>45478</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>45600.62240740741</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>45002</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>45326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>45972</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>45969.39774305555</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>45544</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>45973.40318287037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31485,7 +31485,7 @@
         <v>44824.37194444444</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>45121.80873842593</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45281</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44544.54547453704</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45387</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>45973.58697916667</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>45973.60923611111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>45394</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>45974.72283564815</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>45973.61690972222</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
         <v>45338</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>45607.78569444444</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32219,7 +32219,7 @@
         <v>45577.78651620371</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32276,7 +32276,7 @@
         <v>45007.58128472222</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32333,7 +32333,7 @@
         <v>45468</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32390,7 +32390,7 @@
         <v>45474.65922453703</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32447,7 +32447,7 @@
         <v>45180</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32504,7 +32504,7 @@
         <v>45643</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32561,7 +32561,7 @@
         <v>45149.61890046296</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32618,7 +32618,7 @@
         <v>45260</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32675,7 +32675,7 @@
         <v>45168.51060185185</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32737,7 +32737,7 @@
         <v>45978.84071759259</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32794,7 +32794,7 @@
         <v>45979</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         <v>44587</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32913,7 +32913,7 @@
         <v>45009.64487268519</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>45979.67366898148</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33027,7 +33027,7 @@
         <v>45278</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33084,7 +33084,7 @@
         <v>45981.78496527778</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33146,7 +33146,7 @@
         <v>45981.79671296296</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>45981.79851851852</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45981.79371527778</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44904</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33389,7 +33389,7 @@
         <v>45561</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33446,7 +33446,7 @@
         <v>45985.64126157408</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33503,7 +33503,7 @@
         <v>45593</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33560,7 +33560,7 @@
         <v>45558.35518518519</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45985.64399305556</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45127</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45546</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45315</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45755</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45755</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45755</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45986.48920138889</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34073,7 +34073,7 @@
         <v>45124</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34130,7 +34130,7 @@
         <v>45414.63265046296</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
         <v>44596</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>45668.65929398148</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>44326</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>45729.81550925926</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>45987.47050925926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>45989.75074074074</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34539,7 +34539,7 @@
         <v>45503</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         <v>45719.50620370371</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34653,7 +34653,7 @@
         <v>45586</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34715,7 +34715,7 @@
         <v>45586</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34777,7 +34777,7 @@
         <v>45159</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34834,7 +34834,7 @@
         <v>45989.74815972222</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45338</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45993.58829861111</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35015,7 +35015,7 @@
         <v>44627</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35072,7 +35072,7 @@
         <v>45573</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35134,7 +35134,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35191,7 +35191,7 @@
         <v>45993.59319444445</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         <v>45993.59104166667</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45993.59519675926</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45727</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45995</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45119.4802662037</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45555</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>45189.37082175926</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35667,7 +35667,7 @@
         <v>46042.66351851852</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35724,7 +35724,7 @@
         <v>46042.66019675926</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35781,7 +35781,7 @@
         <v>45999.5834837963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>45996</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45165.41042824074</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>46041.66765046296</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>46041.46825231481</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>46041.47547453704</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>45110.65657407408</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>46043.69349537037</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>45622.43130787037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>45716.7922800926</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>45194</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>45846</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>45568</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>46043.69855324074</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>46001.79890046296</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>46043.69572916667</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>45665.44560185185</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>45141</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>45141.35717592593</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>45083</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>46048.6058449074</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36998,7 +36998,7 @@
         <v>46006</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37055,7 +37055,7 @@
         <v>45090</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37112,7 +37112,7 @@
         <v>45665</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37169,7 +37169,7 @@
         <v>44694</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37226,7 +37226,7 @@
         <v>45204</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37283,7 +37283,7 @@
         <v>45132</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>45415</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>46008.45972222222</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>45700</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>46007.64255787037</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37568,7 +37568,7 @@
         <v>44655</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>45387.745625</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>46050</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37739,7 +37739,7 @@
         <v>46055.05668981482</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>46050</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37853,7 +37853,7 @@
         <v>45182</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37915,7 +37915,7 @@
         <v>46013.47608796296</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37977,7 +37977,7 @@
         <v>45188.676875</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38034,7 +38034,7 @@
         <v>44729</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38091,7 +38091,7 @@
         <v>45119</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
         <v>45121</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38210,7 +38210,7 @@
         <v>45244</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38272,7 +38272,7 @@
         <v>46057.45541666666</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38329,7 +38329,7 @@
         <v>45278</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44858</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38443,7 +38443,7 @@
         <v>45307</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38500,7 +38500,7 @@
         <v>44816</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38557,7 +38557,7 @@
         <v>45173</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38614,7 +38614,7 @@
         <v>45300.66396990741</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38671,7 +38671,7 @@
         <v>45712</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38728,7 +38728,7 @@
         <v>45267</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38790,7 +38790,7 @@
         <v>45267</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38852,7 +38852,7 @@
         <v>45315.47284722222</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>45315</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38966,7 +38966,7 @@
         <v>45328</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39023,7 +39023,7 @@
         <v>45352</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>44853</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39142,7 +39142,7 @@
         <v>44817</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39199,7 +39199,7 @@
         <v>45338</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39261,7 +39261,7 @@
         <v>45831</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39318,7 +39318,7 @@
         <v>45343</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>45343</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39437,7 +39437,7 @@
         <v>45723</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39494,7 +39494,7 @@
         <v>45803</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39551,7 +39551,7 @@
         <v>44767</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39608,7 +39608,7 @@
         <v>44855</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39665,7 +39665,7 @@
         <v>45474</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39722,7 +39722,7 @@
         <v>46043.67734953704</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39779,7 +39779,7 @@
         <v>46065</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39836,7 +39836,7 @@
         <v>45356.97445601852</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39893,7 +39893,7 @@
         <v>46035</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39950,7 +39950,7 @@
         <v>46057.36145833333</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40007,7 +40007,7 @@
         <v>45106</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40064,7 +40064,7 @@
         <v>44961</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40121,7 +40121,7 @@
         <v>44907</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40178,7 +40178,7 @@
         <v>44595</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40235,7 +40235,7 @@
         <v>44497</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40292,7 +40292,7 @@
         <v>45453</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>45267</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40416,7 +40416,7 @@
         <v>45282.47112268519</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40473,7 +40473,7 @@
         <v>46066.71862268518</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40530,7 +40530,7 @@
         <v>46069.49875</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>45945</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>46030.30606481482</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>45882</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>46030.35733796296</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>45301.39177083333</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>45265</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>46041</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>45226</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>46030.36341435185</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>45405</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41157,7 +41157,7 @@
         <v>44390</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41219,7 +41219,7 @@
         <v>46030.36016203704</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41276,7 +41276,7 @@
         <v>46031.60143518518</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41333,7 +41333,7 @@
         <v>44847</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41390,7 +41390,7 @@
         <v>45254</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41447,7 +41447,7 @@
         <v>46031.60064814815</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41504,7 +41504,7 @@
         <v>45191</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41561,7 +41561,7 @@
         <v>45652.39358796296</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41618,7 +41618,7 @@
         <v>46041</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41675,7 +41675,7 @@
         <v>44513</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41732,7 +41732,7 @@
         <v>46076.57427083333</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41794,7 +41794,7 @@
         <v>46035.49152777778</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>45274</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41908,7 +41908,7 @@
         <v>46036.59356481482</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41965,7 +41965,7 @@
         <v>46036.6240625</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42022,7 +42022,7 @@
         <v>46036.6215162037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42079,7 +42079,7 @@
         <v>46036.62605324074</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42136,7 +42136,7 @@
         <v>46031</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>45566</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42250,7 +42250,7 @@
         <v>44972.35990740741</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42307,7 +42307,7 @@
         <v>45894</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42364,7 +42364,7 @@
         <v>44601.705</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42421,7 +42421,7 @@
         <v>44998</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>45586.29178240741</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42535,7 +42535,7 @@
         <v>46066.72431712963</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42592,7 +42592,7 @@
         <v>45112</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45072</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>46043.68041666667</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42768,7 +42768,7 @@
         <v>46041</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42825,7 +42825,7 @@
         <v>45946</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>45244</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42944,7 +42944,7 @@
         <v>45198</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43001,7 +43001,7 @@
         <v>45833</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43058,7 +43058,7 @@
         <v>45894</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43115,7 +43115,7 @@
         <v>45845</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43172,7 +43172,7 @@
         <v>45233</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43229,7 +43229,7 @@
         <v>45233</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43286,7 +43286,7 @@
         <v>45894</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43343,7 +43343,7 @@
         <v>45331</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43400,7 +43400,7 @@
         <v>45343</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43462,7 +43462,7 @@
         <v>44853</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43524,7 +43524,7 @@
         <v>45476</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43581,7 +43581,7 @@
         <v>44767</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43638,7 +43638,7 @@
         <v>44858</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43695,7 +43695,7 @@
         <v>44572</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43752,7 +43752,7 @@
         <v>44732</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43809,7 +43809,7 @@
         <v>44743</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43866,7 +43866,7 @@
         <v>44767</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43923,7 +43923,7 @@
         <v>44272</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43980,7 +43980,7 @@
         <v>45229</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44037,7 +44037,7 @@
         <v>44274</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44094,7 +44094,7 @@
         <v>44879</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44156,7 +44156,7 @@
         <v>44984</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44213,7 +44213,7 @@
         <v>45253</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44270,7 +44270,7 @@
         <v>44915</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44332,7 +44332,7 @@
         <v>45465.77907407407</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44389,7 +44389,7 @@
         <v>45496</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44446,7 +44446,7 @@
         <v>45608.36141203704</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44503,7 +44503,7 @@
         <v>45426</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44560,7 +44560,7 @@
         <v>45636</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44617,7 +44617,7 @@
         <v>45470.5659837963</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44674,7 +44674,7 @@
         <v>44876</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         <v>45668.69042824074</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44788,7 +44788,7 @@
         <v>44684.59604166666</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44845,7 +44845,7 @@
         <v>44628</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44902,7 +44902,7 @@
         <v>45755</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44959,7 +44959,7 @@
         <v>45664.5075</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45016,7 +45016,7 @@
         <v>44923</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45073,7 +45073,7 @@
         <v>44945</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45130,7 +45130,7 @@
         <v>45310</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45187,7 +45187,7 @@
         <v>44991</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45244,7 +45244,7 @@
         <v>44645.58700231482</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45301,7 +45301,7 @@
         <v>45307</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45363,7 +45363,7 @@
         <v>45085</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45420,7 +45420,7 @@
         <v>45049</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45477,7 +45477,7 @@
         <v>45370</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45534,7 +45534,7 @@
         <v>45370</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45591,7 +45591,7 @@
         <v>45128</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45648,7 +45648,7 @@
         <v>45357.59486111111</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45705,7 +45705,7 @@
         <v>45144.5925</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45767,7 +45767,7 @@
         <v>45532</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45824,7 +45824,7 @@
         <v>45385</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45881,7 +45881,7 @@
         <v>45520.56605324074</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45938,7 +45938,7 @@
         <v>44945</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45995,7 +45995,7 @@
         <v>44963.83846064815</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46052,7 +46052,7 @@
         <v>45526.54428240741</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46109,7 +46109,7 @@
         <v>45412</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46166,7 +46166,7 @@
         <v>45247</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46223,7 +46223,7 @@
         <v>45247</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46280,7 +46280,7 @@
         <v>45258</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46337,7 +46337,7 @@
         <v>45116</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46399,7 +46399,7 @@
         <v>45190</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46456,7 +46456,7 @@
         <v>44984</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46513,7 +46513,7 @@
         <v>45189</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46570,7 +46570,7 @@
         <v>45121</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46632,7 +46632,7 @@
         <v>45506</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46689,7 +46689,7 @@
         <v>45306</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>45182.48615740741</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46808,7 +46808,7 @@
         <v>45019.48450231482</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46865,7 +46865,7 @@
         <v>44992.69829861111</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46922,7 +46922,7 @@
         <v>44933</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46979,7 +46979,7 @@
         <v>45197.76050925926</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47036,7 +47036,7 @@
         <v>45149</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47093,7 +47093,7 @@
         <v>45002.67038194444</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47155,7 +47155,7 @@
         <v>45648.28662037037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47212,7 +47212,7 @@
         <v>45307</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47269,7 +47269,7 @@
         <v>45467.36152777778</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47326,7 +47326,7 @@
         <v>44774</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>44866.5670949074</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>45334</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47497,7 +47497,7 @@
         <v>45685.59568287037</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47554,7 +47554,7 @@
         <v>45737</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         <v>45477</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47668,7 +47668,7 @@
         <v>45737</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47725,7 +47725,7 @@
         <v>45738</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47782,7 +47782,7 @@
         <v>45000.46664351852</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47839,7 +47839,7 @@
         <v>45644</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47896,7 +47896,7 @@
         <v>45554</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47953,7 +47953,7 @@
         <v>45343</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48015,7 +48015,7 @@
         <v>45751.68946759259</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48072,7 +48072,7 @@
         <v>45490</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48129,7 +48129,7 @@
         <v>45554</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48186,7 +48186,7 @@
         <v>45721.30579861111</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48243,7 +48243,7 @@
         <v>45386.59263888889</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48300,7 +48300,7 @@
         <v>45134.8561574074</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         <v>45106</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48414,7 +48414,7 @@
         <v>45607.78885416667</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48476,7 +48476,7 @@
         <v>45748</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48533,7 +48533,7 @@
         <v>45748</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48590,7 +48590,7 @@
         <v>45194</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48647,7 +48647,7 @@
         <v>45544</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48704,7 +48704,7 @@
         <v>45377</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>45020</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48823,7 +48823,7 @@
         <v>45364</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>45477</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48942,7 +48942,7 @@
         <v>45646.37674768519</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>45776</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45777.38359953704</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45443.55804398148</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49170,7 +49170,7 @@
         <v>44497</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49227,7 +49227,7 @@
         <v>45217</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49284,7 +49284,7 @@
         <v>45357</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49341,7 +49341,7 @@
         <v>45446</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49398,7 +49398,7 @@
         <v>45233</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49455,7 +49455,7 @@
         <v>45414.43387731481</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49512,7 +49512,7 @@
         <v>45370</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49569,7 +49569,7 @@
         <v>45574</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49626,7 +49626,7 @@
         <v>45789.44635416667</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49683,7 +49683,7 @@
         <v>45789</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49740,7 +49740,7 @@
         <v>45700</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49797,7 +49797,7 @@
         <v>45603.68197916666</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49854,7 +49854,7 @@
         <v>45665.44717592592</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49911,7 +49911,7 @@
         <v>45183</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49968,7 +49968,7 @@
         <v>45517</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50025,7 +50025,7 @@
         <v>45498</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50082,7 +50082,7 @@
         <v>45797.48488425926</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50139,7 +50139,7 @@
         <v>45533</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50196,7 +50196,7 @@
         <v>45670</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50253,7 +50253,7 @@
         <v>45799.43543981481</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50315,7 +50315,7 @@
         <v>45799.43565972222</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50377,7 +50377,7 @@
         <v>45799.43751157408</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50439,7 +50439,7 @@
         <v>45799.43972222223</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50501,7 +50501,7 @@
         <v>45648.33399305555</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50558,7 +50558,7 @@
         <v>45553.57224537037</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50615,7 +50615,7 @@
         <v>45804</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50672,7 +50672,7 @@
         <v>45800.78822916667</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>

--- a/Översikt KRISTIANSTAD.xlsx
+++ b/Översikt KRISTIANSTAD.xlsx
@@ -575,7 +575,7 @@
         <v>44463</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         <v>45107</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45677</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -871,7 +871,7 @@
         <v>45222</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -964,7 +964,7 @@
         <v>45911</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44328</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1151,7 +1151,7 @@
         <v>45357</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
         <v>45715</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1332,7 +1332,7 @@
         <v>45925.46724537037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>45966</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>45733</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>45272</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>45940</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>44823.61357638889</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>44463</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>45000</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2057,7 +2057,7 @@
         <v>45702</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
         <v>45957.68721064815</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
         <v>45189</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         <v>45315</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2414,7 +2414,7 @@
         <v>44463</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2505,7 +2505,7 @@
         <v>44494</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         <v>45128</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>44840</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2763,7 +2763,7 @@
         <v>44463</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45016</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45663</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>45974.8231712963</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45580</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>45335</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         <v>45622</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>46013.48835648148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>45363</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>45303</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3654,7 +3654,7 @@
         <v>44767</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         <v>44328</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3829,7 +3829,7 @@
         <v>44314</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3914,7 +3914,7 @@
         <v>44480</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>44743</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4097,7 +4097,7 @@
         <v>45267</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4191,7 +4191,7 @@
         <v>45337</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         <v>45093</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         <v>45477</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4456,7 +4456,7 @@
         <v>45139</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         <v>45465.76983796297</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44918</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         <v>45492</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4796,7 +4796,7 @@
         <v>45200.76865740741</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         <v>45812.44396990741</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4966,7 +4966,7 @@
         <v>45842.57001157408</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         <v>44825</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         <v>45930</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5221,7 +5221,7 @@
         <v>45929.58872685185</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         <v>45930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         <v>45929</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5476,7 +5476,7 @@
         <v>45702</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>45477</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45089</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
         <v>45931.56096064814</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         <v>45511.41752314815</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         <v>45015</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>45343</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6095,7 +6095,7 @@
         <v>45958.56099537037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6180,7 +6180,7 @@
         <v>45958.54703703704</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6269,7 +6269,7 @@
         <v>45727</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>45322</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6439,7 +6439,7 @@
         <v>45974.81770833334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         <v>44686</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6609,7 +6609,7 @@
         <v>45328</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>45302</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>45952</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>46035</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6949,7 +6949,7 @@
         <v>45506</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7034,7 +7034,7 @@
         <v>45303</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7124,7 +7124,7 @@
         <v>45727</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         <v>45602</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7294,7 +7294,7 @@
         <v>44574</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7351,7 +7351,7 @@
         <v>44348</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7408,7 +7408,7 @@
         <v>44705</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7465,7 +7465,7 @@
         <v>44838.43608796296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         <v>44434</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7589,7 +7589,7 @@
         <v>44468.47100694444</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7646,7 +7646,7 @@
         <v>44449</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>44533</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>44286</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>44536</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>44670</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>44725</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>44560</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>44558</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>44672.47938657407</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44705</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>44452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>44767</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8335,7 +8335,7 @@
         <v>44744</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8392,7 +8392,7 @@
         <v>44460</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8469,7 +8469,7 @@
         <v>44435</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44399.50987268519</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8583,7 +8583,7 @@
         <v>44435</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8640,7 +8640,7 @@
         <v>44609</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8702,7 +8702,7 @@
         <v>44628</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8759,7 +8759,7 @@
         <v>44572</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         <v>44607</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8873,7 +8873,7 @@
         <v>44592.46954861111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8930,7 +8930,7 @@
         <v>44623.34907407407</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8987,7 +8987,7 @@
         <v>44623.35771990741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -9044,7 +9044,7 @@
         <v>44410</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
         <v>44354</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
         <v>44837</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9220,7 +9220,7 @@
         <v>44627</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9277,7 +9277,7 @@
         <v>44442</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9339,7 +9339,7 @@
         <v>44888.49152777778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9396,7 +9396,7 @@
         <v>44368</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9453,7 +9453,7 @@
         <v>44744.04241898148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9510,7 +9510,7 @@
         <v>44461</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9567,7 +9567,7 @@
         <v>44491</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9624,7 +9624,7 @@
         <v>44596</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9681,7 +9681,7 @@
         <v>44362</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9738,7 +9738,7 @@
         <v>44412</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9795,7 +9795,7 @@
         <v>44412</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9852,7 +9852,7 @@
         <v>44328</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9909,7 +9909,7 @@
         <v>44841.68107638889</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9966,7 +9966,7 @@
         <v>44862.57940972222</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44866.56840277778</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -10080,7 +10080,7 @@
         <v>44706</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10137,7 +10137,7 @@
         <v>44470</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10194,7 +10194,7 @@
         <v>44813.41585648148</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10251,7 +10251,7 @@
         <v>44433</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10313,7 +10313,7 @@
         <v>44579</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10370,7 +10370,7 @@
         <v>44384</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10432,7 +10432,7 @@
         <v>44767.50349537037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10489,7 +10489,7 @@
         <v>44449</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10546,7 +10546,7 @@
         <v>44713.92694444444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10603,7 +10603,7 @@
         <v>44838.43405092593</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10665,7 +10665,7 @@
         <v>44522</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10722,7 +10722,7 @@
         <v>44749.48130787037</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10779,7 +10779,7 @@
         <v>44816.66179398148</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10841,7 +10841,7 @@
         <v>44341</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10903,7 +10903,7 @@
         <v>44256</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10960,7 +10960,7 @@
         <v>44518.83491898148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
         <v>44298</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -11074,7 +11074,7 @@
         <v>44587.49263888889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -11136,7 +11136,7 @@
         <v>44419</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11193,7 +11193,7 @@
         <v>44685</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11250,7 +11250,7 @@
         <v>44525</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11307,7 +11307,7 @@
         <v>44645.58873842593</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11364,7 +11364,7 @@
         <v>44697</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>44428</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11478,7 +11478,7 @@
         <v>44628</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11535,7 +11535,7 @@
         <v>44672.46216435185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11592,7 +11592,7 @@
         <v>44742</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11649,7 +11649,7 @@
         <v>45035</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11706,7 +11706,7 @@
         <v>45482.58282407407</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11763,7 +11763,7 @@
         <v>45482.58454861111</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         <v>45043.86902777778</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
         <v>44846</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11939,7 +11939,7 @@
         <v>45532</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11996,7 +11996,7 @@
         <v>45532</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -12053,7 +12053,7 @@
         <v>45300</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -12110,7 +12110,7 @@
         <v>45232.85101851852</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12167,7 +12167,7 @@
         <v>45321</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12224,7 +12224,7 @@
         <v>44893.61615740741</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12281,7 +12281,7 @@
         <v>45379.38943287037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12338,7 +12338,7 @@
         <v>45336</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12395,7 +12395,7 @@
         <v>45357</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12452,7 +12452,7 @@
         <v>45416</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12509,7 +12509,7 @@
         <v>44455</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12566,7 +12566,7 @@
         <v>44847</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12623,7 +12623,7 @@
         <v>45763.74811342593</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12680,7 +12680,7 @@
         <v>45461.56512731482</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12742,7 +12742,7 @@
         <v>45420</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12799,7 +12799,7 @@
         <v>45762.7953587963</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12856,7 +12856,7 @@
         <v>45533</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12913,7 +12913,7 @@
         <v>45461.61268518519</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         <v>45197</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         <v>45197</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         <v>44487</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         <v>45323</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         <v>45121</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13265,7 +13265,7 @@
         <v>45144</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13322,7 +13322,7 @@
         <v>45144</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13384,7 +13384,7 @@
         <v>45586</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13446,7 +13446,7 @@
         <v>44419</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13508,7 +13508,7 @@
         <v>45465.78670138889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13565,7 +13565,7 @@
         <v>45265</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13622,7 +13622,7 @@
         <v>45470</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13679,7 +13679,7 @@
         <v>45461.61435185185</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         <v>45468</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         <v>45465.77428240741</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         <v>44818</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13912,7 +13912,7 @@
         <v>45419</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13969,7 +13969,7 @@
         <v>45282</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         <v>45506</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         <v>45485.57604166667</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         <v>45337</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         <v>45511.57498842593</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         <v>45303</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14321,7 +14321,7 @@
         <v>44840</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14378,7 +14378,7 @@
         <v>44497</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14435,7 +14435,7 @@
         <v>45574</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
         <v>45737</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14549,7 +14549,7 @@
         <v>45589.77721064815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14606,7 +14606,7 @@
         <v>45573</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14663,7 +14663,7 @@
         <v>45804.419375</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14720,7 +14720,7 @@
         <v>44993</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14777,7 +14777,7 @@
         <v>45884.56550925926</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14834,7 +14834,7 @@
         <v>45883.39725694444</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14891,7 +14891,7 @@
         <v>45884.300625</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14948,7 +14948,7 @@
         <v>44419</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -15005,7 +15005,7 @@
         <v>44995</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -15062,7 +15062,7 @@
         <v>45396</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -15119,7 +15119,7 @@
         <v>44938</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -15176,7 +15176,7 @@
         <v>45714</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15233,7 +15233,7 @@
         <v>45646.55054398148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15295,7 +15295,7 @@
         <v>45749.39954861111</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15352,7 +15352,7 @@
         <v>45810.60901620371</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>45408</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15466,7 +15466,7 @@
         <v>45887.44121527778</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15523,7 +15523,7 @@
         <v>45887.4477662037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15580,7 +15580,7 @@
         <v>44599.41950231481</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15637,7 +15637,7 @@
         <v>45810.42681712963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15694,7 +15694,7 @@
         <v>45812.55164351852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15751,7 +15751,7 @@
         <v>45887.4405787037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15808,7 +15808,7 @@
         <v>45887.44887731481</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15865,7 +15865,7 @@
         <v>45887</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15922,7 +15922,7 @@
         <v>45120.63530092593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15979,7 +15979,7 @@
         <v>45581.41429398148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -16041,7 +16041,7 @@
         <v>45811.58686342592</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -16098,7 +16098,7 @@
         <v>45889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -16155,7 +16155,7 @@
         <v>45103.5831712963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44910</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44923</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16326,7 +16326,7 @@
         <v>45577.78436342593</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16383,7 +16383,7 @@
         <v>45577.78920138889</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16440,7 +16440,7 @@
         <v>45420.39774305555</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16497,7 +16497,7 @@
         <v>45198</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16554,7 +16554,7 @@
         <v>44894</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16616,7 +16616,7 @@
         <v>44537</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16673,7 +16673,7 @@
         <v>45042.68837962963</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16730,7 +16730,7 @@
         <v>45338.44405092593</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16787,7 +16787,7 @@
         <v>45894.31759259259</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16844,7 +16844,7 @@
         <v>45583.33128472222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16901,7 +16901,7 @@
         <v>45575.65561342592</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16958,7 +16958,7 @@
         <v>45825.66778935185</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>45843</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -17072,7 +17072,7 @@
         <v>45896</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -17129,7 +17129,7 @@
         <v>45895</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17186,7 +17186,7 @@
         <v>45895</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17243,7 +17243,7 @@
         <v>45895</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17300,7 +17300,7 @@
         <v>45898</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17357,7 +17357,7 @@
         <v>44971</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17414,7 +17414,7 @@
         <v>45898</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17471,7 +17471,7 @@
         <v>45898.60077546296</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17528,7 +17528,7 @@
         <v>45900.47006944445</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17585,7 +17585,7 @@
         <v>45900.47556712963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>45544</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>44946</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>45579</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>45900.45480324074</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>45706</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>44399</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>45900.46728009259</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>45902.25789351852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>45900.47234953703</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>45902.25947916666</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>45737</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44743</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44744</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>45832</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18445,7 +18445,7 @@
         <v>45228</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>45900.46421296296</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>45737</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18616,7 +18616,7 @@
         <v>45737</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18673,7 +18673,7 @@
         <v>44988</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18735,7 +18735,7 @@
         <v>45723.3765625</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>45723.37921296297</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>45085.5793287037</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>45831.60479166666</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>45875</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>45737</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>45525.35751157408</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19134,7 +19134,7 @@
         <v>45398</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19191,7 +19191,7 @@
         <v>45738.68771990741</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19248,7 +19248,7 @@
         <v>45833.67045138889</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19305,7 +19305,7 @@
         <v>45835.58896990741</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19362,7 +19362,7 @@
         <v>45107.90287037037</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19419,7 +19419,7 @@
         <v>45343</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19481,7 +19481,7 @@
         <v>45440.58768518519</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19538,7 +19538,7 @@
         <v>45586</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19600,7 +19600,7 @@
         <v>45758</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19657,7 +19657,7 @@
         <v>45712</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19714,7 +19714,7 @@
         <v>45712</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19771,7 +19771,7 @@
         <v>45343</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19833,7 +19833,7 @@
         <v>44634</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19890,7 +19890,7 @@
         <v>45355.47297453704</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19947,7 +19947,7 @@
         <v>45180</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -20004,7 +20004,7 @@
         <v>45839</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -20061,7 +20061,7 @@
         <v>45121</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -20123,7 +20123,7 @@
         <v>45121</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20185,7 +20185,7 @@
         <v>45112.96149305555</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20247,7 +20247,7 @@
         <v>45839.73775462963</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20304,7 +20304,7 @@
         <v>45577.79115740741</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20361,7 +20361,7 @@
         <v>45307</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20418,7 +20418,7 @@
         <v>45600</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20475,7 +20475,7 @@
         <v>45321</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20532,7 +20532,7 @@
         <v>45408.42017361111</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20589,7 +20589,7 @@
         <v>45845.53</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20646,7 +20646,7 @@
         <v>45715</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20703,7 +20703,7 @@
         <v>45736.56064814814</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20760,7 +20760,7 @@
         <v>44463</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20817,7 +20817,7 @@
         <v>45014</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20874,7 +20874,7 @@
         <v>45845.53181712963</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20931,7 +20931,7 @@
         <v>44995.57435185185</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20988,7 +20988,7 @@
         <v>45706</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -21045,7 +21045,7 @@
         <v>45736.79643518518</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -21102,7 +21102,7 @@
         <v>45079</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21159,7 +21159,7 @@
         <v>45166</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21216,7 +21216,7 @@
         <v>45609.57256944444</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21273,7 +21273,7 @@
         <v>45846.5358912037</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21330,7 +21330,7 @@
         <v>45754</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21387,7 +21387,7 @@
         <v>45672</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21444,7 +21444,7 @@
         <v>45792</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21501,7 +21501,7 @@
         <v>45012</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21558,7 +21558,7 @@
         <v>45077.59108796297</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21615,7 +21615,7 @@
         <v>45077</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21672,7 +21672,7 @@
         <v>45144.55350694444</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21734,7 +21734,7 @@
         <v>45119</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21791,7 +21791,7 @@
         <v>44992</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21848,7 +21848,7 @@
         <v>45275.6518287037</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21910,7 +21910,7 @@
         <v>45166</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21967,7 +21967,7 @@
         <v>45749.41003472222</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -22024,7 +22024,7 @@
         <v>45568</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -22086,7 +22086,7 @@
         <v>45818</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22143,7 +22143,7 @@
         <v>45915.88474537037</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22200,7 +22200,7 @@
         <v>45915.34508101852</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22257,7 +22257,7 @@
         <v>45915.57407407407</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22314,7 +22314,7 @@
         <v>44390</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22376,7 +22376,7 @@
         <v>45854.68505787037</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22433,7 +22433,7 @@
         <v>45856.71502314815</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22490,7 +22490,7 @@
         <v>45916.46348379629</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22547,7 +22547,7 @@
         <v>45465.73241898148</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22604,7 +22604,7 @@
         <v>45860.43550925926</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22661,7 +22661,7 @@
         <v>45860.43425925926</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22718,7 +22718,7 @@
         <v>45014</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22775,7 +22775,7 @@
         <v>45875</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22832,7 +22832,7 @@
         <v>45901</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22889,7 +22889,7 @@
         <v>45903</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22946,7 +22946,7 @@
         <v>45862.72125</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -23003,7 +23003,7 @@
         <v>45827.68927083333</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -23060,7 +23060,7 @@
         <v>45644.81020833334</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -23122,7 +23122,7 @@
         <v>45357</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23179,7 +23179,7 @@
         <v>45668.70152777778</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23236,7 +23236,7 @@
         <v>44712</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23298,7 +23298,7 @@
         <v>44341.59855324074</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23360,7 +23360,7 @@
         <v>45015</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23422,7 +23422,7 @@
         <v>45923.62017361111</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23479,7 +23479,7 @@
         <v>44795.58869212963</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23536,7 +23536,7 @@
         <v>45707.7328587963</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23593,7 +23593,7 @@
         <v>45925.4690625</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23650,7 +23650,7 @@
         <v>45925.66001157407</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23712,7 +23712,7 @@
         <v>45874.49202546296</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23769,7 +23769,7 @@
         <v>45187</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23826,7 +23826,7 @@
         <v>45925.46207175926</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23883,7 +23883,7 @@
         <v>45925.46439814815</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23940,7 +23940,7 @@
         <v>45874.49907407408</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23997,7 +23997,7 @@
         <v>45693.56855324074</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -24054,7 +24054,7 @@
         <v>45926.65568287037</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -24111,7 +24111,7 @@
         <v>45831.6021875</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24168,7 +24168,7 @@
         <v>45930</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24225,7 +24225,7 @@
         <v>45874.50697916667</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24282,7 +24282,7 @@
         <v>45874</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24339,7 +24339,7 @@
         <v>45455</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>45929.61524305555</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24453,7 +24453,7 @@
         <v>45930</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24510,7 +24510,7 @@
         <v>45930</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24572,7 +24572,7 @@
         <v>45929</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24629,7 +24629,7 @@
         <v>45874.61452546297</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24686,7 +24686,7 @@
         <v>45874.49295138889</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24743,7 +24743,7 @@
         <v>45874.50819444445</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24800,7 +24800,7 @@
         <v>44307.68211805556</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24857,7 +24857,7 @@
         <v>45874</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24914,7 +24914,7 @@
         <v>45874.49726851852</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24971,7 +24971,7 @@
         <v>45874.50575231481</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -25028,7 +25028,7 @@
         <v>44476</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -25090,7 +25090,7 @@
         <v>45707.73159722222</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -25147,7 +25147,7 @@
         <v>45876.90118055556</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25204,7 +25204,7 @@
         <v>45709</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25261,7 +25261,7 @@
         <v>45544.68872685185</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25318,7 +25318,7 @@
         <v>45558.67956018518</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25380,7 +25380,7 @@
         <v>45558.68189814815</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25442,7 +25442,7 @@
         <v>45581.51094907407</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25504,7 +25504,7 @@
         <v>45882.55253472222</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25561,7 +25561,7 @@
         <v>44713</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25623,7 +25623,7 @@
         <v>45418</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25685,7 +25685,7 @@
         <v>45546</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25747,7 +25747,7 @@
         <v>45581.49773148148</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25809,7 +25809,7 @@
         <v>45607.58175925926</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25871,7 +25871,7 @@
         <v>45558.61697916667</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25933,7 +25933,7 @@
         <v>45558.62166666667</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25995,7 +25995,7 @@
         <v>45558.66828703704</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -26057,7 +26057,7 @@
         <v>45558.63395833333</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -26119,7 +26119,7 @@
         <v>45931.56511574074</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -26181,7 +26181,7 @@
         <v>44607</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26238,7 +26238,7 @@
         <v>45089</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26295,7 +26295,7 @@
         <v>45607.59041666667</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>45933.73827546297</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26414,7 +26414,7 @@
         <v>45915</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26471,7 +26471,7 @@
         <v>45110</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26528,7 +26528,7 @@
         <v>45111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26585,7 +26585,7 @@
         <v>45247</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26642,7 +26642,7 @@
         <v>45554</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26699,7 +26699,7 @@
         <v>45938</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26756,7 +26756,7 @@
         <v>45022</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26813,7 +26813,7 @@
         <v>45027</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26870,7 +26870,7 @@
         <v>45334.59233796296</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26927,7 +26927,7 @@
         <v>45738.65178240741</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26984,7 +26984,7 @@
         <v>45883.34923611111</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -27041,7 +27041,7 @@
         <v>45197</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -27098,7 +27098,7 @@
         <v>44468</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -27155,7 +27155,7 @@
         <v>45939.47030092592</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27212,7 +27212,7 @@
         <v>45939.47542824074</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27269,7 +27269,7 @@
         <v>45938.77130787037</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27326,7 +27326,7 @@
         <v>45083</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27388,7 +27388,7 @@
         <v>45474</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27445,7 +27445,7 @@
         <v>44918</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27502,7 +27502,7 @@
         <v>45939.46699074074</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27559,7 +27559,7 @@
         <v>45939.46443287037</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27616,7 +27616,7 @@
         <v>45012.58659722222</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27673,7 +27673,7 @@
         <v>45939.59577546296</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27730,7 +27730,7 @@
         <v>45939.44630787037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27787,7 +27787,7 @@
         <v>45054</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27844,7 +27844,7 @@
         <v>44991</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27901,7 +27901,7 @@
         <v>45943.5743287037</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27958,7 +27958,7 @@
         <v>45723.37791666666</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -28015,7 +28015,7 @@
         <v>45943.6071875</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -28072,7 +28072,7 @@
         <v>45465.78322916666</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -28129,7 +28129,7 @@
         <v>45465.79103009259</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28186,7 +28186,7 @@
         <v>45700</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28243,7 +28243,7 @@
         <v>45568</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28300,7 +28300,7 @@
         <v>45945.68521990741</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28357,7 +28357,7 @@
         <v>45069.46530092593</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28414,7 +28414,7 @@
         <v>45226</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28471,7 +28471,7 @@
         <v>45945.68832175926</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28528,7 +28528,7 @@
         <v>45945.68895833333</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28585,7 +28585,7 @@
         <v>45945.68956018519</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28642,7 +28642,7 @@
         <v>44846.37982638889</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28699,7 +28699,7 @@
         <v>45098</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28756,7 +28756,7 @@
         <v>45947</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28813,7 +28813,7 @@
         <v>45646.46715277778</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28875,7 +28875,7 @@
         <v>45119</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28932,7 +28932,7 @@
         <v>45260</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28989,7 +28989,7 @@
         <v>45763.75098379629</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -29046,7 +29046,7 @@
         <v>45555</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -29103,7 +29103,7 @@
         <v>45493.90299768518</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29160,7 +29160,7 @@
         <v>45342.37055555556</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29217,7 +29217,7 @@
         <v>45953.37246527777</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29274,7 +29274,7 @@
         <v>45738</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29331,7 +29331,7 @@
         <v>45738.68306712963</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29388,7 +29388,7 @@
         <v>45954.356875</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29450,7 +29450,7 @@
         <v>45954.36238425926</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29512,7 +29512,7 @@
         <v>45761.43996527778</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29569,7 +29569,7 @@
         <v>45311</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29626,7 +29626,7 @@
         <v>45307</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29688,7 +29688,7 @@
         <v>45110</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29745,7 +29745,7 @@
         <v>45761.45442129629</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29802,7 +29802,7 @@
         <v>45582</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29859,7 +29859,7 @@
         <v>45366.37332175926</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29916,7 +29916,7 @@
         <v>45446</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29973,7 +29973,7 @@
         <v>45307</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -30030,7 +30030,7 @@
         <v>45716.79393518518</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -30087,7 +30087,7 @@
         <v>45958.53815972222</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30144,7 +30144,7 @@
         <v>45566</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30201,7 +30201,7 @@
         <v>44894</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30258,7 +30258,7 @@
         <v>45960.36130787037</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30320,7 +30320,7 @@
         <v>45727.61193287037</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30377,7 +30377,7 @@
         <v>45963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30434,7 +30434,7 @@
         <v>45963.82510416667</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30496,7 +30496,7 @@
         <v>45960.84490740741</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30558,7 +30558,7 @@
         <v>45343</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30620,7 +30620,7 @@
         <v>45960.82561342593</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30677,7 +30677,7 @@
         <v>45960.83756944445</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30739,7 +30739,7 @@
         <v>45803</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30796,7 +30796,7 @@
         <v>45247.58837962963</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30853,7 +30853,7 @@
         <v>45338</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30910,7 +30910,7 @@
         <v>45119</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30967,7 +30967,7 @@
         <v>45098.66982638889</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -31024,7 +31024,7 @@
         <v>45478</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -31081,7 +31081,7 @@
         <v>45600.62240740741</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -31138,7 +31138,7 @@
         <v>45002</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31195,7 +31195,7 @@
         <v>45326</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31252,7 +31252,7 @@
         <v>45972</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31309,7 +31309,7 @@
         <v>45969.39774305555</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31366,7 +31366,7 @@
         <v>45544</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>45973.40318287037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31485,7 +31485,7 @@
         <v>44824.37194444444</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31542,7 +31542,7 @@
         <v>45121.80873842593</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31604,7 +31604,7 @@
         <v>45281</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31661,7 +31661,7 @@
         <v>44544.54547453704</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31718,7 +31718,7 @@
         <v>45387</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31775,7 +31775,7 @@
         <v>45973.58697916667</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31837,7 +31837,7 @@
         <v>45973.60923611111</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31919,7 +31919,7 @@
         <v>45394</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31976,7 +31976,7 @@
         <v>45974.72283564815</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>45973.61690972222</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -32100,7 +32100,7 @@
         <v>45338</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>45607.78569444444</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32219,7 +32219,7 @@
         <v>45577.78651620371</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32276,7 +32276,7 @@
         <v>45007.58128472222</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32333,7 +32333,7 @@
         <v>45468</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32390,7 +32390,7 @@
         <v>45474.65922453703</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32447,7 +32447,7 @@
         <v>45180</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32504,7 +32504,7 @@
         <v>45643</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32561,7 +32561,7 @@
         <v>45149.61890046296</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32618,7 +32618,7 @@
         <v>45260</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32675,7 +32675,7 @@
         <v>45168.51060185185</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32737,7 +32737,7 @@
         <v>45978.84071759259</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32794,7 +32794,7 @@
         <v>45979</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         <v>44587</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32913,7 +32913,7 @@
         <v>45009.64487268519</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32970,7 +32970,7 @@
         <v>45979.67366898148</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -33027,7 +33027,7 @@
         <v>45278</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -33084,7 +33084,7 @@
         <v>45981.78496527778</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -33146,7 +33146,7 @@
         <v>45981.79671296296</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33208,7 +33208,7 @@
         <v>45981.79851851852</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33270,7 +33270,7 @@
         <v>45981.79371527778</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33332,7 +33332,7 @@
         <v>44904</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33389,7 +33389,7 @@
         <v>45561</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33446,7 +33446,7 @@
         <v>45985.64126157408</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33503,7 +33503,7 @@
         <v>45593</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33560,7 +33560,7 @@
         <v>45558.35518518519</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33617,7 +33617,7 @@
         <v>45985.64399305556</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33674,7 +33674,7 @@
         <v>45127</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33731,7 +33731,7 @@
         <v>45546</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33788,7 +33788,7 @@
         <v>45315</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33845,7 +33845,7 @@
         <v>45755</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33902,7 +33902,7 @@
         <v>45755</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33959,7 +33959,7 @@
         <v>45755</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -34016,7 +34016,7 @@
         <v>45986.48920138889</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -34073,7 +34073,7 @@
         <v>45124</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -34130,7 +34130,7 @@
         <v>45414.63265046296</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34187,7 +34187,7 @@
         <v>44596</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34244,7 +34244,7 @@
         <v>45668.65929398148</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34301,7 +34301,7 @@
         <v>44326</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34358,7 +34358,7 @@
         <v>45729.81550925926</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34415,7 +34415,7 @@
         <v>45987.47050925926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34477,7 +34477,7 @@
         <v>45989.75074074074</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34539,7 +34539,7 @@
         <v>45503</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34596,7 +34596,7 @@
         <v>45719.50620370371</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34653,7 +34653,7 @@
         <v>45586</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34715,7 +34715,7 @@
         <v>45586</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34777,7 +34777,7 @@
         <v>45159</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34834,7 +34834,7 @@
         <v>45989.74815972222</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34896,7 +34896,7 @@
         <v>45338</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34953,7 +34953,7 @@
         <v>45993.58829861111</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -35015,7 +35015,7 @@
         <v>44627</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -35072,7 +35072,7 @@
         <v>45573</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -35134,7 +35134,7 @@
         <v>45049</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35191,7 +35191,7 @@
         <v>45993.59319444445</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35253,7 +35253,7 @@
         <v>45993.59104166667</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35315,7 +35315,7 @@
         <v>45993.59519675926</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35377,7 +35377,7 @@
         <v>45727</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35434,7 +35434,7 @@
         <v>45995</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35491,7 +35491,7 @@
         <v>45119.4802662037</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35548,7 +35548,7 @@
         <v>45555</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35605,7 +35605,7 @@
         <v>45189.37082175926</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35667,7 +35667,7 @@
         <v>46042.66351851852</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35724,7 +35724,7 @@
         <v>46042.66019675926</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35781,7 +35781,7 @@
         <v>45999.5834837963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35843,7 +35843,7 @@
         <v>45996</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35900,7 +35900,7 @@
         <v>45165.41042824074</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35962,7 +35962,7 @@
         <v>46041.66765046296</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -36019,7 +36019,7 @@
         <v>46041.46825231481</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -36076,7 +36076,7 @@
         <v>46041.47547453704</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -36133,7 +36133,7 @@
         <v>45110.65657407408</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -36190,7 +36190,7 @@
         <v>46043.69349537037</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -36247,7 +36247,7 @@
         <v>45622.43130787037</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -36304,7 +36304,7 @@
         <v>45716.7922800926</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36361,7 +36361,7 @@
         <v>45194</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36418,7 +36418,7 @@
         <v>45846</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36475,7 +36475,7 @@
         <v>45568</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36532,7 +36532,7 @@
         <v>46043.69855324074</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36589,7 +36589,7 @@
         <v>46001.79890046296</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36646,7 +36646,7 @@
         <v>46043.69572916667</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36703,7 +36703,7 @@
         <v>45665.44560185185</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36760,7 +36760,7 @@
         <v>45141</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36817,7 +36817,7 @@
         <v>45141.35717592593</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36874,7 +36874,7 @@
         <v>45083</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36936,7 +36936,7 @@
         <v>46048.6058449074</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36998,7 +36998,7 @@
         <v>46006</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -37055,7 +37055,7 @@
         <v>45090</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -37112,7 +37112,7 @@
         <v>45665</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -37169,7 +37169,7 @@
         <v>44694</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -37226,7 +37226,7 @@
         <v>45204</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -37283,7 +37283,7 @@
         <v>45132</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>45415</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>46008.45972222222</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>45700</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>46007.64255787037</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37568,7 +37568,7 @@
         <v>44655</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>45387.745625</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>46050</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37739,7 +37739,7 @@
         <v>46055.05668981482</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>46050</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37853,7 +37853,7 @@
         <v>45182</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37915,7 +37915,7 @@
         <v>46013.47608796296</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37977,7 +37977,7 @@
         <v>45188.676875</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -38034,7 +38034,7 @@
         <v>44729</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -38091,7 +38091,7 @@
         <v>45119</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -38148,7 +38148,7 @@
         <v>45121</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -38210,7 +38210,7 @@
         <v>45244</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -38272,7 +38272,7 @@
         <v>46057.45541666666</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -38329,7 +38329,7 @@
         <v>45278</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38386,7 +38386,7 @@
         <v>44858</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38443,7 +38443,7 @@
         <v>45307</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38500,7 +38500,7 @@
         <v>44816</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38557,7 +38557,7 @@
         <v>45173</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38614,7 +38614,7 @@
         <v>45300.66396990741</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38671,7 +38671,7 @@
         <v>45712</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -38728,7 +38728,7 @@
         <v>45267</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -38790,7 +38790,7 @@
         <v>45267</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -38852,7 +38852,7 @@
         <v>45315.47284722222</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -38909,7 +38909,7 @@
         <v>45315</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -38966,7 +38966,7 @@
         <v>45328</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -39023,7 +39023,7 @@
         <v>45352</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -39080,7 +39080,7 @@
         <v>44853</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -39142,7 +39142,7 @@
         <v>44817</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -39199,7 +39199,7 @@
         <v>45338</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -39261,7 +39261,7 @@
         <v>45831</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -39318,7 +39318,7 @@
         <v>45343</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -39375,7 +39375,7 @@
         <v>45343</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -39437,7 +39437,7 @@
         <v>45723</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -39494,7 +39494,7 @@
         <v>45803</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -39551,7 +39551,7 @@
         <v>44767</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -39608,7 +39608,7 @@
         <v>44855</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -39665,7 +39665,7 @@
         <v>45474</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -39722,7 +39722,7 @@
         <v>46043.67734953704</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -39779,7 +39779,7 @@
         <v>46065</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -39836,7 +39836,7 @@
         <v>45356.97445601852</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -39893,7 +39893,7 @@
         <v>46035</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -39950,7 +39950,7 @@
         <v>46057.36145833333</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -40007,7 +40007,7 @@
         <v>45106</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -40064,7 +40064,7 @@
         <v>44961</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -40121,7 +40121,7 @@
         <v>44907</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -40178,7 +40178,7 @@
         <v>44595</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -40235,7 +40235,7 @@
         <v>44497</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -40292,7 +40292,7 @@
         <v>45453</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -40354,7 +40354,7 @@
         <v>45267</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -40416,7 +40416,7 @@
         <v>45282.47112268519</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -40473,7 +40473,7 @@
         <v>46066.71862268518</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -40530,7 +40530,7 @@
         <v>46069.49875</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -40587,7 +40587,7 @@
         <v>45945</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -40644,7 +40644,7 @@
         <v>46030.30606481482</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -40701,7 +40701,7 @@
         <v>45882</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -40758,7 +40758,7 @@
         <v>46030.35733796296</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -40815,7 +40815,7 @@
         <v>45301.39177083333</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -40872,7 +40872,7 @@
         <v>45265</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -40929,7 +40929,7 @@
         <v>46041</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -40986,7 +40986,7 @@
         <v>45226</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -41043,7 +41043,7 @@
         <v>46030.36341435185</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -41100,7 +41100,7 @@
         <v>45405</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -41157,7 +41157,7 @@
         <v>44390</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -41219,7 +41219,7 @@
         <v>46030.36016203704</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -41276,7 +41276,7 @@
         <v>46031.60143518518</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -41333,7 +41333,7 @@
         <v>44847</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -41390,7 +41390,7 @@
         <v>45254</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -41447,7 +41447,7 @@
         <v>46031.60064814815</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -41504,7 +41504,7 @@
         <v>45191</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -41561,7 +41561,7 @@
         <v>45652.39358796296</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -41618,7 +41618,7 @@
         <v>46041</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -41675,7 +41675,7 @@
         <v>44513</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -41732,7 +41732,7 @@
         <v>46076.57427083333</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -41794,7 +41794,7 @@
         <v>46035.49152777778</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -41851,7 +41851,7 @@
         <v>45274</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -41908,7 +41908,7 @@
         <v>46036.59356481482</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -41965,7 +41965,7 @@
         <v>46036.6240625</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -42022,7 +42022,7 @@
         <v>46036.6215162037</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -42079,7 +42079,7 @@
         <v>46036.62605324074</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -42136,7 +42136,7 @@
         <v>46031</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -42193,7 +42193,7 @@
         <v>45566</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -42250,7 +42250,7 @@
         <v>44972.35990740741</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -42307,7 +42307,7 @@
         <v>45894</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -42364,7 +42364,7 @@
         <v>44601.705</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -42421,7 +42421,7 @@
         <v>44998</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -42478,7 +42478,7 @@
         <v>45586.29178240741</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -42535,7 +42535,7 @@
         <v>46066.72431712963</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -42592,7 +42592,7 @@
         <v>45112</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -42654,7 +42654,7 @@
         <v>45072</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -42711,7 +42711,7 @@
         <v>46043.68041666667</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -42768,7 +42768,7 @@
         <v>46041</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -42825,7 +42825,7 @@
         <v>45946</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -42882,7 +42882,7 @@
         <v>45244</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -42944,7 +42944,7 @@
         <v>45198</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -43001,7 +43001,7 @@
         <v>45833</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -43058,7 +43058,7 @@
         <v>45894</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -43115,7 +43115,7 @@
         <v>45845</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -43172,7 +43172,7 @@
         <v>45233</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -43229,7 +43229,7 @@
         <v>45233</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -43286,7 +43286,7 @@
         <v>45894</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -43343,7 +43343,7 @@
         <v>45331</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -43400,7 +43400,7 @@
         <v>45343</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -43462,7 +43462,7 @@
         <v>44853</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -43524,7 +43524,7 @@
         <v>45476</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -43581,7 +43581,7 @@
         <v>44767</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -43638,7 +43638,7 @@
         <v>44858</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -43695,7 +43695,7 @@
         <v>44572</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -43752,7 +43752,7 @@
         <v>44732</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -43809,7 +43809,7 @@
         <v>44743</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -43866,7 +43866,7 @@
         <v>44767</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -43923,7 +43923,7 @@
         <v>44272</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -43980,7 +43980,7 @@
         <v>45229</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -44037,7 +44037,7 @@
         <v>44274</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -44094,7 +44094,7 @@
         <v>44879</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -44156,7 +44156,7 @@
         <v>44984</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -44213,7 +44213,7 @@
         <v>45253</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -44270,7 +44270,7 @@
         <v>44915</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -44332,7 +44332,7 @@
         <v>45465.77907407407</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -44389,7 +44389,7 @@
         <v>45496</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -44446,7 +44446,7 @@
         <v>45608.36141203704</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -44503,7 +44503,7 @@
         <v>45426</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -44560,7 +44560,7 @@
         <v>45636</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -44617,7 +44617,7 @@
         <v>45470.5659837963</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -44674,7 +44674,7 @@
         <v>44876</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -44731,7 +44731,7 @@
         <v>45668.69042824074</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -44788,7 +44788,7 @@
         <v>44684.59604166666</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -44845,7 +44845,7 @@
         <v>44628</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -44902,7 +44902,7 @@
         <v>45755</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -44959,7 +44959,7 @@
         <v>45664.5075</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -45016,7 +45016,7 @@
         <v>44923</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -45073,7 +45073,7 @@
         <v>44945</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -45130,7 +45130,7 @@
         <v>45310</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -45187,7 +45187,7 @@
         <v>44991</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -45244,7 +45244,7 @@
         <v>44645.58700231482</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -45301,7 +45301,7 @@
         <v>45307</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -45363,7 +45363,7 @@
         <v>45085</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -45420,7 +45420,7 @@
         <v>45049</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -45477,7 +45477,7 @@
         <v>45370</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -45534,7 +45534,7 @@
         <v>45370</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -45591,7 +45591,7 @@
         <v>45128</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -45648,7 +45648,7 @@
         <v>45357.59486111111</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -45705,7 +45705,7 @@
         <v>45144.5925</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -45767,7 +45767,7 @@
         <v>45532</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -45824,7 +45824,7 @@
         <v>45385</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -45881,7 +45881,7 @@
         <v>45520.56605324074</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -45938,7 +45938,7 @@
         <v>44945</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -45995,7 +45995,7 @@
         <v>44963.83846064815</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -46052,7 +46052,7 @@
         <v>45526.54428240741</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -46109,7 +46109,7 @@
         <v>45412</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -46166,7 +46166,7 @@
         <v>45247</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -46223,7 +46223,7 @@
         <v>45247</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -46280,7 +46280,7 @@
         <v>45258</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -46337,7 +46337,7 @@
         <v>45116</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -46399,7 +46399,7 @@
         <v>45190</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -46456,7 +46456,7 @@
         <v>44984</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -46513,7 +46513,7 @@
         <v>45189</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -46570,7 +46570,7 @@
         <v>45121</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -46632,7 +46632,7 @@
         <v>45506</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -46689,7 +46689,7 @@
         <v>45306</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -46746,7 +46746,7 @@
         <v>45182.48615740741</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -46808,7 +46808,7 @@
         <v>45019.48450231482</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -46865,7 +46865,7 @@
         <v>44992.69829861111</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -46922,7 +46922,7 @@
         <v>44933</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -46979,7 +46979,7 @@
         <v>45197.76050925926</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -47036,7 +47036,7 @@
         <v>45149</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -47093,7 +47093,7 @@
         <v>45002.67038194444</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -47155,7 +47155,7 @@
         <v>45648.28662037037</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -47212,7 +47212,7 @@
         <v>45307</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -47269,7 +47269,7 @@
         <v>45467.36152777778</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -47326,7 +47326,7 @@
         <v>44774</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -47383,7 +47383,7 @@
         <v>44866.5670949074</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -47440,7 +47440,7 @@
         <v>45334</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -47497,7 +47497,7 @@
         <v>45685.59568287037</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -47554,7 +47554,7 @@
         <v>45737</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -47611,7 +47611,7 @@
         <v>45477</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -47668,7 +47668,7 @@
         <v>45737</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -47725,7 +47725,7 @@
         <v>45738</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -47782,7 +47782,7 @@
         <v>45000.46664351852</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -47839,7 +47839,7 @@
         <v>45644</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -47896,7 +47896,7 @@
         <v>45554</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -47953,7 +47953,7 @@
         <v>45343</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -48015,7 +48015,7 @@
         <v>45751.68946759259</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -48072,7 +48072,7 @@
         <v>45490</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -48129,7 +48129,7 @@
         <v>45554</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -48186,7 +48186,7 @@
         <v>45721.30579861111</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -48243,7 +48243,7 @@
         <v>45386.59263888889</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -48300,7 +48300,7 @@
         <v>45134.8561574074</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -48357,7 +48357,7 @@
         <v>45106</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -48414,7 +48414,7 @@
         <v>45607.78885416667</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -48476,7 +48476,7 @@
         <v>45748</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -48533,7 +48533,7 @@
         <v>45748</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -48590,7 +48590,7 @@
         <v>45194</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -48647,7 +48647,7 @@
         <v>45544</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -48704,7 +48704,7 @@
         <v>45377</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -48761,7 +48761,7 @@
         <v>45020</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -48823,7 +48823,7 @@
         <v>45364</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -48880,7 +48880,7 @@
         <v>45477</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -48942,7 +48942,7 @@
         <v>45646.37674768519</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -48999,7 +48999,7 @@
         <v>45776</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -49056,7 +49056,7 @@
         <v>45777.38359953704</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -49113,7 +49113,7 @@
         <v>45443.55804398148</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -49170,7 +49170,7 @@
         <v>44497</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -49227,7 +49227,7 @@
         <v>45217</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -49284,7 +49284,7 @@
         <v>45357</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -49341,7 +49341,7 @@
         <v>45446</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -49398,7 +49398,7 @@
         <v>45233</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -49455,7 +49455,7 @@
         <v>45414.43387731481</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -49512,7 +49512,7 @@
         <v>45370</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -49569,7 +49569,7 @@
         <v>45574</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -49626,7 +49626,7 @@
         <v>45789.44635416667</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -49683,7 +49683,7 @@
         <v>45789</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -49740,7 +49740,7 @@
         <v>45700</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -49797,7 +49797,7 @@
         <v>45603.68197916666</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -49854,7 +49854,7 @@
         <v>45665.44717592592</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -49911,7 +49911,7 @@
         <v>45183</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -49968,7 +49968,7 @@
         <v>45517</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -50025,7 +50025,7 @@
         <v>45498</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -50082,7 +50082,7 @@
         <v>45797.48488425926</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -50139,7 +50139,7 @@
         <v>45533</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -50196,7 +50196,7 @@
         <v>45670</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -50253,7 +50253,7 @@
         <v>45799.43543981481</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -50315,7 +50315,7 @@
         <v>45799.43565972222</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -50377,7 +50377,7 @@
         <v>45799.43751157408</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -50439,7 +50439,7 @@
         <v>45799.43972222223</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -50501,7 +50501,7 @@
         <v>45648.33399305555</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -50558,7 +50558,7 @@
         <v>45553.57224537037</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -50615,7 +50615,7 @@
         <v>45804</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -50672,7 +50672,7 @@
         <v>45800.78822916667</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46082</v>
+        <v>46083</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
